--- a/Output/finalData.xlsx
+++ b/Output/finalData.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,7 +27,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,6 +58,14 @@
     <font>
       <b val="1"/>
       <color rgb="007CBB00"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00F65314"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <sz val="12"/>
     </font>
   </fonts>
@@ -54,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -63,27 +92,148 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -186,12 +336,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>16</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3352800" cy="2590800"/>
+    <ext cx="3209925" cy="2590800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -199,6 +349,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7086600" cy="2828925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -271,7 +446,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3352800" cy="2590800"/>
+    <ext cx="3209925" cy="2590800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -762,1279 +937,1508 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="16" customWidth="1" min="15" max="15"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+      <c r="P1" s="6" t="n"/>
+      <c r="Q1" s="6" t="n"/>
+      <c r="R1" s="6" t="n"/>
+      <c r="S1" s="6" t="n"/>
+      <c r="T1" s="6" t="n"/>
+      <c r="U1" s="6" t="n"/>
+      <c r="V1" s="6" t="n"/>
+      <c r="W1" s="6" t="n"/>
+      <c r="X1" s="6" t="n"/>
+      <c r="Y1" s="6" t="n"/>
+      <c r="Z1" s="6" t="n"/>
+      <c r="AA1" s="6" t="n"/>
+      <c r="AB1" s="6" t="n"/>
+      <c r="AC1" s="6" t="n"/>
+      <c r="AD1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
-      <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="n"/>
-      <c r="AA2" s="2" t="n"/>
-      <c r="AB2" s="2" t="n"/>
-      <c r="AC2" s="2" t="n"/>
-      <c r="AD2" s="2" t="n"/>
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="6" t="n"/>
+      <c r="X2" s="6" t="n"/>
+      <c r="Y2" s="6" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="6" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-      <c r="X3" s="2" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
-      <c r="AA3" s="2" t="n"/>
-      <c r="AB3" s="2" t="n"/>
-      <c r="AC3" s="2" t="n"/>
-      <c r="AD3" s="2" t="n"/>
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="6" t="n"/>
+      <c r="U3" s="6" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="6" t="n"/>
+      <c r="X3" s="6" t="n"/>
+      <c r="Y3" s="6" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="6" t="n"/>
+      <c r="AC3" s="6" t="n"/>
+      <c r="AD3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
-      <c r="X4" s="2" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="2" t="n"/>
-      <c r="AD4" s="2" t="n"/>
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+      <c r="U4" s="6" t="n"/>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="6" t="n"/>
+      <c r="X4" s="6" t="n"/>
+      <c r="Y4" s="6" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="6" t="n"/>
+      <c r="AB4" s="6" t="n"/>
+      <c r="AC4" s="6" t="n"/>
+      <c r="AD4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
-      <c r="W5" s="2" t="n"/>
-      <c r="X5" s="2" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
-      <c r="AA5" s="2" t="n"/>
-      <c r="AB5" s="2" t="n"/>
-      <c r="AC5" s="2" t="n"/>
-      <c r="AD5" s="2" t="n"/>
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="6" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="6" t="n"/>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="T5" s="6" t="n"/>
+      <c r="U5" s="6" t="n"/>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="6" t="n"/>
+      <c r="X5" s="6" t="n"/>
+      <c r="Y5" s="6" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="6" t="n"/>
+      <c r="AB5" s="6" t="n"/>
+      <c r="AC5" s="6" t="n"/>
+      <c r="AD5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="2" t="n"/>
-      <c r="X6" s="2" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="2" t="n"/>
-      <c r="AD6" s="2" t="n"/>
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="6" t="n"/>
+      <c r="X6" s="6" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
+      <c r="AB6" s="6" t="n"/>
+      <c r="AC6" s="6" t="n"/>
+      <c r="AD6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
-      <c r="W7" s="2" t="n"/>
-      <c r="X7" s="2" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
-      <c r="AA7" s="2" t="n"/>
-      <c r="AB7" s="2" t="n"/>
-      <c r="AC7" s="2" t="n"/>
-      <c r="AD7" s="2" t="n"/>
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="6" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="6" t="n"/>
+      <c r="O7" s="6" t="n"/>
+      <c r="P7" s="6" t="n"/>
+      <c r="Q7" s="6" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="6" t="n"/>
+      <c r="X7" s="6" t="n"/>
+      <c r="Y7" s="6" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="6" t="n"/>
+      <c r="AC7" s="6" t="n"/>
+      <c r="AD7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
-      <c r="W8" s="2" t="n"/>
-      <c r="X8" s="2" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
-      <c r="AA8" s="2" t="n"/>
-      <c r="AB8" s="2" t="n"/>
-      <c r="AC8" s="2" t="n"/>
-      <c r="AD8" s="2" t="n"/>
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="6" t="n"/>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="6" t="n"/>
+      <c r="Q8" s="6" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="6" t="n"/>
+      <c r="X8" s="6" t="n"/>
+      <c r="Y8" s="6" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="6" t="n"/>
+      <c r="AC8" s="6" t="n"/>
+      <c r="AD8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
-      <c r="W9" s="2" t="n"/>
-      <c r="X9" s="2" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
-      <c r="AA9" s="2" t="n"/>
-      <c r="AB9" s="2" t="n"/>
-      <c r="AC9" s="2" t="n"/>
-      <c r="AD9" s="2" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="6" t="n"/>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="6" t="n"/>
+      <c r="O9" s="6" t="n"/>
+      <c r="P9" s="6" t="n"/>
+      <c r="Q9" s="6" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="T9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="6" t="n"/>
+      <c r="X9" s="6" t="n"/>
+      <c r="Y9" s="6" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="6" t="n"/>
+      <c r="AC9" s="6" t="n"/>
+      <c r="AD9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
-      <c r="W10" s="2" t="n"/>
-      <c r="X10" s="2" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
-      <c r="AA10" s="2" t="n"/>
-      <c r="AB10" s="2" t="n"/>
-      <c r="AC10" s="2" t="n"/>
-      <c r="AD10" s="2" t="n"/>
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n"/>
+      <c r="M10" s="6" t="n"/>
+      <c r="N10" s="6" t="n"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="6" t="n"/>
+      <c r="Q10" s="6" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="T10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="6" t="n"/>
+      <c r="X10" s="6" t="n"/>
+      <c r="Y10" s="6" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
+      <c r="AB10" s="6" t="n"/>
+      <c r="AC10" s="6" t="n"/>
+      <c r="AD10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
-      <c r="W11" s="2" t="n"/>
-      <c r="X11" s="2" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
-      <c r="AA11" s="2" t="n"/>
-      <c r="AB11" s="2" t="n"/>
-      <c r="AC11" s="2" t="n"/>
-      <c r="AD11" s="2" t="n"/>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="6" t="n"/>
+      <c r="M11" s="6" t="n"/>
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="6" t="n"/>
+      <c r="P11" s="6" t="n"/>
+      <c r="Q11" s="6" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="6" t="n"/>
+      <c r="T11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="6" t="n"/>
+      <c r="X11" s="6" t="n"/>
+      <c r="Y11" s="6" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
+      <c r="AB11" s="6" t="n"/>
+      <c r="AC11" s="6" t="n"/>
+      <c r="AD11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
-      <c r="W12" s="2" t="n"/>
-      <c r="X12" s="2" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
-      <c r="AB12" s="2" t="n"/>
-      <c r="AC12" s="2" t="n"/>
-      <c r="AD12" s="2" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="6" t="n"/>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="P12" s="6" t="n"/>
+      <c r="Q12" s="6" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="6" t="n"/>
+      <c r="T12" s="6" t="n"/>
+      <c r="U12" s="6" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="6" t="n"/>
+      <c r="X12" s="6" t="n"/>
+      <c r="Y12" s="6" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
+      <c r="AB12" s="6" t="n"/>
+      <c r="AC12" s="6" t="n"/>
+      <c r="AD12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
-      <c r="W13" s="2" t="n"/>
-      <c r="X13" s="2" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="2" t="n"/>
-      <c r="AB13" s="2" t="n"/>
-      <c r="AC13" s="2" t="n"/>
-      <c r="AD13" s="2" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
+      <c r="P13" s="6" t="n"/>
+      <c r="Q13" s="6" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="6" t="n"/>
+      <c r="T13" s="6" t="n"/>
+      <c r="U13" s="6" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="6" t="n"/>
+      <c r="X13" s="6" t="n"/>
+      <c r="Y13" s="6" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="6" t="n"/>
+      <c r="AB13" s="6" t="n"/>
+      <c r="AC13" s="6" t="n"/>
+      <c r="AD13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
-      <c r="W14" s="2" t="n"/>
-      <c r="X14" s="2" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
-      <c r="AA14" s="2" t="n"/>
-      <c r="AB14" s="2" t="n"/>
-      <c r="AC14" s="2" t="n"/>
-      <c r="AD14" s="2" t="n"/>
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="6" t="n"/>
+      <c r="K14" s="6" t="n"/>
+      <c r="L14" s="6" t="n"/>
+      <c r="M14" s="6" t="n"/>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="6" t="n"/>
+      <c r="Q14" s="6" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="6" t="n"/>
+      <c r="T14" s="6" t="n"/>
+      <c r="U14" s="6" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="6" t="n"/>
+      <c r="X14" s="6" t="n"/>
+      <c r="Y14" s="6" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="6" t="n"/>
+      <c r="AB14" s="6" t="n"/>
+      <c r="AC14" s="6" t="n"/>
+      <c r="AD14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
-      <c r="W15" s="2" t="n"/>
-      <c r="X15" s="2" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="2" t="n"/>
-      <c r="AB15" s="2" t="n"/>
-      <c r="AC15" s="2" t="n"/>
-      <c r="AD15" s="2" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="6" t="n"/>
+      <c r="J15" s="6" t="n"/>
+      <c r="K15" s="6" t="n"/>
+      <c r="L15" s="6" t="n"/>
+      <c r="M15" s="6" t="n"/>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="6" t="n"/>
+      <c r="P15" s="6" t="n"/>
+      <c r="Q15" s="6" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="6" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="6" t="n"/>
+      <c r="X15" s="6" t="n"/>
+      <c r="Y15" s="6" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="6" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>YTD Income =</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>$60000</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
-      <c r="W16" s="2" t="n"/>
-      <c r="X16" s="2" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
-      <c r="AA16" s="2" t="n"/>
-      <c r="AB16" s="2" t="n"/>
-      <c r="AC16" s="2" t="n"/>
-      <c r="AD16" s="2" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="6" t="n"/>
+      <c r="J16" s="6" t="n"/>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="6" t="n"/>
+      <c r="M16" s="6" t="n"/>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="6" t="n"/>
+      <c r="P16" s="6" t="n"/>
+      <c r="Q16" s="6" t="n"/>
+      <c r="R16" s="6" t="n"/>
+      <c r="S16" s="6" t="n"/>
+      <c r="T16" s="6" t="n"/>
+      <c r="U16" s="6" t="n"/>
+      <c r="V16" s="6" t="n"/>
+      <c r="W16" s="6" t="n"/>
+      <c r="X16" s="6" t="n"/>
+      <c r="Y16" s="6" t="n"/>
+      <c r="Z16" s="6" t="n"/>
+      <c r="AA16" s="6" t="n"/>
+      <c r="AB16" s="6" t="n"/>
+      <c r="AC16" s="6" t="n"/>
+      <c r="AD16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Available =</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>$-3000</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
-      <c r="W17" s="2" t="n"/>
-      <c r="X17" s="2" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
-      <c r="AA17" s="2" t="n"/>
-      <c r="AB17" s="2" t="n"/>
-      <c r="AC17" s="2" t="n"/>
-      <c r="AD17" s="2" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>YTD Account Balance:</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t>YTD Expenses Overview:</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="6" t="n"/>
+      <c r="L17" s="8" t="inlineStr">
+        <is>
+          <t>Month Avg.</t>
+        </is>
+      </c>
+      <c r="M17" s="8" t="inlineStr">
+        <is>
+          <t>YTD Total</t>
+        </is>
+      </c>
+      <c r="N17" s="8" t="inlineStr">
+        <is>
+          <t>YTD %</t>
+        </is>
+      </c>
+      <c r="O17" s="8" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="P17" s="6" t="n"/>
+      <c r="Q17" s="6" t="n"/>
+      <c r="R17" s="6" t="n"/>
+      <c r="S17" s="6" t="n"/>
+      <c r="T17" s="6" t="n"/>
+      <c r="U17" s="6" t="n"/>
+      <c r="V17" s="6" t="n"/>
+      <c r="W17" s="6" t="n"/>
+      <c r="X17" s="6" t="n"/>
+      <c r="Y17" s="6" t="n"/>
+      <c r="Z17" s="6" t="n"/>
+      <c r="AA17" s="6" t="n"/>
+      <c r="AB17" s="6" t="n"/>
+      <c r="AC17" s="6" t="n"/>
+      <c r="AD17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Invested =</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>$10800</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
-      <c r="X18" s="2" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
-      <c r="AA18" s="2" t="n"/>
-      <c r="AB18" s="2" t="n"/>
-      <c r="AC18" s="2" t="n"/>
-      <c r="AD18" s="2" t="n"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>Income:</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>60000$</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="9" t="inlineStr">
+        <is>
+          <t>Investments:</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>10800$</t>
+        </is>
+      </c>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="12" t="inlineStr">
+        <is>
+          <t>Housing</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>700$</t>
+        </is>
+      </c>
+      <c r="M18" s="11" t="inlineStr">
+        <is>
+          <t>8400$</t>
+        </is>
+      </c>
+      <c r="N18" s="11" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="O18" s="11" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="P18" s="6" t="n"/>
+      <c r="Q18" s="6" t="n"/>
+      <c r="R18" s="6" t="n"/>
+      <c r="S18" s="6" t="n"/>
+      <c r="T18" s="6" t="n"/>
+      <c r="U18" s="6" t="n"/>
+      <c r="V18" s="6" t="n"/>
+      <c r="W18" s="6" t="n"/>
+      <c r="X18" s="6" t="n"/>
+      <c r="Y18" s="6" t="n"/>
+      <c r="Z18" s="6" t="n"/>
+      <c r="AA18" s="6" t="n"/>
+      <c r="AB18" s="6" t="n"/>
+      <c r="AC18" s="6" t="n"/>
+      <c r="AD18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="n"/>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
-      <c r="W19" s="2" t="n"/>
-      <c r="X19" s="2" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="Z19" s="2" t="n"/>
-      <c r="AA19" s="2" t="n"/>
-      <c r="AB19" s="2" t="n"/>
-      <c r="AC19" s="2" t="n"/>
-      <c r="AD19" s="2" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>Expenses:</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>-63000$</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Expenses:</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="I19" s="13" t="inlineStr">
+        <is>
+          <t>-52200$</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="12" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="L19" s="11" t="inlineStr">
+        <is>
+          <t>700$</t>
+        </is>
+      </c>
+      <c r="M19" s="11" t="inlineStr">
+        <is>
+          <t>8400$</t>
+        </is>
+      </c>
+      <c r="N19" s="11" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="O19" s="11" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="P19" s="6" t="n"/>
+      <c r="Q19" s="6" t="n"/>
+      <c r="R19" s="6" t="n"/>
+      <c r="S19" s="6" t="n"/>
+      <c r="T19" s="6" t="n"/>
+      <c r="U19" s="6" t="n"/>
+      <c r="V19" s="6" t="n"/>
+      <c r="W19" s="6" t="n"/>
+      <c r="X19" s="6" t="n"/>
+      <c r="Y19" s="6" t="n"/>
+      <c r="Z19" s="6" t="n"/>
+      <c r="AA19" s="6" t="n"/>
+      <c r="AB19" s="6" t="n"/>
+      <c r="AC19" s="6" t="n"/>
+      <c r="AD19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="2" t="n"/>
-      <c r="X20" s="2" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="Z20" s="2" t="n"/>
-      <c r="AA20" s="2" t="n"/>
-      <c r="AB20" s="2" t="n"/>
-      <c r="AC20" s="2" t="n"/>
-      <c r="AD20" s="2" t="n"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>--------------------------------------</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="6" t="n"/>
+      <c r="J20" s="6" t="n"/>
+      <c r="K20" s="12" t="inlineStr">
+        <is>
+          <t>Banking</t>
+        </is>
+      </c>
+      <c r="L20" s="11" t="inlineStr">
+        <is>
+          <t>1000$</t>
+        </is>
+      </c>
+      <c r="M20" s="11" t="inlineStr">
+        <is>
+          <t>12000$</t>
+        </is>
+      </c>
+      <c r="N20" s="11" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="O20" s="11" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="P20" s="6" t="n"/>
+      <c r="Q20" s="6" t="n"/>
+      <c r="R20" s="6" t="n"/>
+      <c r="S20" s="6" t="n"/>
+      <c r="T20" s="6" t="n"/>
+      <c r="U20" s="6" t="n"/>
+      <c r="V20" s="6" t="n"/>
+      <c r="W20" s="6" t="n"/>
+      <c r="X20" s="6" t="n"/>
+      <c r="Y20" s="6" t="n"/>
+      <c r="Z20" s="6" t="n"/>
+      <c r="AA20" s="6" t="n"/>
+      <c r="AB20" s="6" t="n"/>
+      <c r="AC20" s="6" t="n"/>
+      <c r="AD20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
-      <c r="W21" s="2" t="n"/>
-      <c r="X21" s="2" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="Z21" s="2" t="n"/>
-      <c r="AA21" s="2" t="n"/>
-      <c r="AB21" s="2" t="n"/>
-      <c r="AC21" s="2" t="n"/>
-      <c r="AD21" s="2" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Balance:</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="13" t="inlineStr">
+        <is>
+          <t>-3000$</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="6" t="n"/>
+      <c r="J21" s="6" t="n"/>
+      <c r="K21" s="12" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="L21" s="11" t="inlineStr">
+        <is>
+          <t>700$</t>
+        </is>
+      </c>
+      <c r="M21" s="11" t="inlineStr">
+        <is>
+          <t>8400$</t>
+        </is>
+      </c>
+      <c r="N21" s="11" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="O21" s="11" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="P21" s="6" t="n"/>
+      <c r="Q21" s="6" t="n"/>
+      <c r="R21" s="6" t="n"/>
+      <c r="S21" s="6" t="n"/>
+      <c r="T21" s="6" t="n"/>
+      <c r="U21" s="6" t="n"/>
+      <c r="V21" s="6" t="n"/>
+      <c r="W21" s="6" t="n"/>
+      <c r="X21" s="6" t="n"/>
+      <c r="Y21" s="6" t="n"/>
+      <c r="Z21" s="6" t="n"/>
+      <c r="AA21" s="6" t="n"/>
+      <c r="AB21" s="6" t="n"/>
+      <c r="AC21" s="6" t="n"/>
+      <c r="AD21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="R22" s="2" t="n"/>
-      <c r="S22" s="2" t="n"/>
-      <c r="T22" s="2" t="n"/>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
-      <c r="W22" s="2" t="n"/>
-      <c r="X22" s="2" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="Z22" s="2" t="n"/>
-      <c r="AA22" s="2" t="n"/>
-      <c r="AB22" s="2" t="n"/>
-      <c r="AC22" s="2" t="n"/>
-      <c r="AD22" s="2" t="n"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="n"/>
+      <c r="I22" s="6" t="n"/>
+      <c r="J22" s="6" t="n"/>
+      <c r="K22" s="12" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="L22" s="11" t="inlineStr">
+        <is>
+          <t>700$</t>
+        </is>
+      </c>
+      <c r="M22" s="11" t="inlineStr">
+        <is>
+          <t>8400$</t>
+        </is>
+      </c>
+      <c r="N22" s="11" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="O22" s="11" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="P22" s="6" t="n"/>
+      <c r="Q22" s="6" t="n"/>
+      <c r="R22" s="6" t="n"/>
+      <c r="S22" s="6" t="n"/>
+      <c r="T22" s="6" t="n"/>
+      <c r="U22" s="6" t="n"/>
+      <c r="V22" s="6" t="n"/>
+      <c r="W22" s="6" t="n"/>
+      <c r="X22" s="6" t="n"/>
+      <c r="Y22" s="6" t="n"/>
+      <c r="Z22" s="6" t="n"/>
+      <c r="AA22" s="6" t="n"/>
+      <c r="AB22" s="6" t="n"/>
+      <c r="AC22" s="6" t="n"/>
+      <c r="AD22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="n"/>
-      <c r="T23" s="2" t="n"/>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
-      <c r="W23" s="2" t="n"/>
-      <c r="X23" s="2" t="n"/>
-      <c r="Y23" s="2" t="n"/>
-      <c r="Z23" s="2" t="n"/>
-      <c r="AA23" s="2" t="n"/>
-      <c r="AB23" s="2" t="n"/>
-      <c r="AC23" s="2" t="n"/>
-      <c r="AD23" s="2" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="6" t="n"/>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="12" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="L23" s="11" t="inlineStr">
+        <is>
+          <t>700$</t>
+        </is>
+      </c>
+      <c r="M23" s="11" t="inlineStr">
+        <is>
+          <t>8400$</t>
+        </is>
+      </c>
+      <c r="N23" s="11" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="O23" s="11" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="P23" s="6" t="n"/>
+      <c r="Q23" s="6" t="n"/>
+      <c r="R23" s="6" t="n"/>
+      <c r="S23" s="6" t="n"/>
+      <c r="T23" s="6" t="n"/>
+      <c r="U23" s="6" t="n"/>
+      <c r="V23" s="6" t="n"/>
+      <c r="W23" s="6" t="n"/>
+      <c r="X23" s="6" t="n"/>
+      <c r="Y23" s="6" t="n"/>
+      <c r="Z23" s="6" t="n"/>
+      <c r="AA23" s="6" t="n"/>
+      <c r="AB23" s="6" t="n"/>
+      <c r="AC23" s="6" t="n"/>
+      <c r="AD23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="n"/>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
-      <c r="W24" s="2" t="n"/>
-      <c r="X24" s="2" t="n"/>
-      <c r="Y24" s="2" t="n"/>
-      <c r="Z24" s="2" t="n"/>
-      <c r="AA24" s="2" t="n"/>
-      <c r="AB24" s="2" t="n"/>
-      <c r="AC24" s="2" t="n"/>
-      <c r="AD24" s="2" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="12" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="L24" s="11" t="inlineStr">
+        <is>
+          <t>750$</t>
+        </is>
+      </c>
+      <c r="M24" s="11" t="inlineStr">
+        <is>
+          <t>9000$</t>
+        </is>
+      </c>
+      <c r="N24" s="11" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="O24" s="11" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="P24" s="6" t="n"/>
+      <c r="Q24" s="6" t="n"/>
+      <c r="R24" s="6" t="n"/>
+      <c r="S24" s="6" t="n"/>
+      <c r="T24" s="6" t="n"/>
+      <c r="U24" s="6" t="n"/>
+      <c r="V24" s="6" t="n"/>
+      <c r="W24" s="6" t="n"/>
+      <c r="X24" s="6" t="n"/>
+      <c r="Y24" s="6" t="n"/>
+      <c r="Z24" s="6" t="n"/>
+      <c r="AA24" s="6" t="n"/>
+      <c r="AB24" s="6" t="n"/>
+      <c r="AC24" s="6" t="n"/>
+      <c r="AD24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
-      <c r="S25" s="2" t="n"/>
-      <c r="T25" s="2" t="n"/>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
-      <c r="W25" s="2" t="n"/>
-      <c r="X25" s="2" t="n"/>
-      <c r="Y25" s="2" t="n"/>
-      <c r="Z25" s="2" t="n"/>
-      <c r="AA25" s="2" t="n"/>
-      <c r="AB25" s="2" t="n"/>
-      <c r="AC25" s="2" t="n"/>
-      <c r="AD25" s="2" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
+      <c r="I25" s="6" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="6" t="n"/>
+      <c r="Q25" s="6" t="n"/>
+      <c r="R25" s="6" t="n"/>
+      <c r="S25" s="6" t="n"/>
+      <c r="T25" s="6" t="n"/>
+      <c r="U25" s="6" t="n"/>
+      <c r="V25" s="6" t="n"/>
+      <c r="W25" s="6" t="n"/>
+      <c r="X25" s="6" t="n"/>
+      <c r="Y25" s="6" t="n"/>
+      <c r="Z25" s="6" t="n"/>
+      <c r="AA25" s="6" t="n"/>
+      <c r="AB25" s="6" t="n"/>
+      <c r="AC25" s="6" t="n"/>
+      <c r="AD25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="n"/>
-      <c r="T26" s="2" t="n"/>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
-      <c r="W26" s="2" t="n"/>
-      <c r="X26" s="2" t="n"/>
-      <c r="Y26" s="2" t="n"/>
-      <c r="Z26" s="2" t="n"/>
-      <c r="AA26" s="2" t="n"/>
-      <c r="AB26" s="2" t="n"/>
-      <c r="AC26" s="2" t="n"/>
-      <c r="AD26" s="2" t="n"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="n"/>
+      <c r="I26" s="6" t="n"/>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="6" t="n"/>
+      <c r="Q26" s="6" t="n"/>
+      <c r="R26" s="6" t="n"/>
+      <c r="S26" s="6" t="n"/>
+      <c r="T26" s="6" t="n"/>
+      <c r="U26" s="6" t="n"/>
+      <c r="V26" s="6" t="n"/>
+      <c r="W26" s="6" t="n"/>
+      <c r="X26" s="6" t="n"/>
+      <c r="Y26" s="6" t="n"/>
+      <c r="Z26" s="6" t="n"/>
+      <c r="AA26" s="6" t="n"/>
+      <c r="AB26" s="6" t="n"/>
+      <c r="AC26" s="6" t="n"/>
+      <c r="AD26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
-      <c r="T27" s="2" t="n"/>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
-      <c r="W27" s="2" t="n"/>
-      <c r="X27" s="2" t="n"/>
-      <c r="Y27" s="2" t="n"/>
-      <c r="Z27" s="2" t="n"/>
-      <c r="AA27" s="2" t="n"/>
-      <c r="AB27" s="2" t="n"/>
-      <c r="AC27" s="2" t="n"/>
-      <c r="AD27" s="2" t="n"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
+      <c r="I27" s="6" t="n"/>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="6" t="n"/>
+      <c r="Q27" s="6" t="n"/>
+      <c r="R27" s="6" t="n"/>
+      <c r="S27" s="6" t="n"/>
+      <c r="T27" s="6" t="n"/>
+      <c r="U27" s="6" t="n"/>
+      <c r="V27" s="6" t="n"/>
+      <c r="W27" s="6" t="n"/>
+      <c r="X27" s="6" t="n"/>
+      <c r="Y27" s="6" t="n"/>
+      <c r="Z27" s="6" t="n"/>
+      <c r="AA27" s="6" t="n"/>
+      <c r="AB27" s="6" t="n"/>
+      <c r="AC27" s="6" t="n"/>
+      <c r="AD27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="n"/>
-      <c r="Q28" s="2" t="n"/>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="n"/>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
-      <c r="W28" s="2" t="n"/>
-      <c r="X28" s="2" t="n"/>
-      <c r="Y28" s="2" t="n"/>
-      <c r="Z28" s="2" t="n"/>
-      <c r="AA28" s="2" t="n"/>
-      <c r="AB28" s="2" t="n"/>
-      <c r="AC28" s="2" t="n"/>
-      <c r="AD28" s="2" t="n"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n"/>
+      <c r="F28" s="16" t="n"/>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="16" t="n"/>
+      <c r="I28" s="16" t="n"/>
+      <c r="J28" s="16" t="n"/>
+      <c r="K28" s="16" t="n"/>
+      <c r="L28" s="16" t="n"/>
+      <c r="M28" s="16" t="n"/>
+      <c r="N28" s="16" t="n"/>
+      <c r="O28" s="17" t="n"/>
+      <c r="P28" s="6" t="n"/>
+      <c r="Q28" s="6" t="n"/>
+      <c r="R28" s="6" t="n"/>
+      <c r="S28" s="6" t="n"/>
+      <c r="T28" s="6" t="n"/>
+      <c r="U28" s="6" t="n"/>
+      <c r="V28" s="6" t="n"/>
+      <c r="W28" s="6" t="n"/>
+      <c r="X28" s="6" t="n"/>
+      <c r="Y28" s="6" t="n"/>
+      <c r="Z28" s="6" t="n"/>
+      <c r="AA28" s="6" t="n"/>
+      <c r="AB28" s="6" t="n"/>
+      <c r="AC28" s="6" t="n"/>
+      <c r="AD28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="n"/>
-      <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
-      <c r="W29" s="2" t="n"/>
-      <c r="X29" s="2" t="n"/>
-      <c r="Y29" s="2" t="n"/>
-      <c r="Z29" s="2" t="n"/>
-      <c r="AA29" s="2" t="n"/>
-      <c r="AB29" s="2" t="n"/>
-      <c r="AC29" s="2" t="n"/>
-      <c r="AD29" s="2" t="n"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Housing expenses are considerably bellow recommended levels. While not necesarly a bad thing, a review of this category is recommended.</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="19" t="n"/>
+      <c r="P29" s="6" t="n"/>
+      <c r="Q29" s="6" t="n"/>
+      <c r="R29" s="6" t="n"/>
+      <c r="S29" s="6" t="n"/>
+      <c r="T29" s="6" t="n"/>
+      <c r="U29" s="6" t="n"/>
+      <c r="V29" s="6" t="n"/>
+      <c r="W29" s="6" t="n"/>
+      <c r="X29" s="6" t="n"/>
+      <c r="Y29" s="6" t="n"/>
+      <c r="Z29" s="6" t="n"/>
+      <c r="AA29" s="6" t="n"/>
+      <c r="AB29" s="6" t="n"/>
+      <c r="AC29" s="6" t="n"/>
+      <c r="AD29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="n"/>
-      <c r="S30" s="2" t="n"/>
-      <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
-      <c r="W30" s="2" t="n"/>
-      <c r="X30" s="2" t="n"/>
-      <c r="Y30" s="2" t="n"/>
-      <c r="Z30" s="2" t="n"/>
-      <c r="AA30" s="2" t="n"/>
-      <c r="AB30" s="2" t="n"/>
-      <c r="AC30" s="2" t="n"/>
-      <c r="AD30" s="2" t="n"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Transportation expenses are on the Lower End of recommended levels. Good work.</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="n"/>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="n"/>
+      <c r="M30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="19" t="n"/>
+      <c r="P30" s="6" t="n"/>
+      <c r="Q30" s="6" t="n"/>
+      <c r="R30" s="6" t="n"/>
+      <c r="S30" s="6" t="n"/>
+      <c r="T30" s="6" t="n"/>
+      <c r="U30" s="6" t="n"/>
+      <c r="V30" s="6" t="n"/>
+      <c r="W30" s="6" t="n"/>
+      <c r="X30" s="6" t="n"/>
+      <c r="Y30" s="6" t="n"/>
+      <c r="Z30" s="6" t="n"/>
+      <c r="AA30" s="6" t="n"/>
+      <c r="AB30" s="6" t="n"/>
+      <c r="AC30" s="6" t="n"/>
+      <c r="AD30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="n"/>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="n"/>
-      <c r="T31" s="2" t="n"/>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
-      <c r="W31" s="2" t="n"/>
-      <c r="X31" s="2" t="n"/>
-      <c r="Y31" s="2" t="n"/>
-      <c r="Z31" s="2" t="n"/>
-      <c r="AA31" s="2" t="n"/>
-      <c r="AB31" s="2" t="n"/>
-      <c r="AC31" s="2" t="n"/>
-      <c r="AD31" s="2" t="n"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Banking expenses are at a Very High level, please consider reviewing this category further.</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="6" t="n"/>
+      <c r="I31" s="6" t="n"/>
+      <c r="J31" s="6" t="n"/>
+      <c r="K31" s="6" t="n"/>
+      <c r="L31" s="6" t="n"/>
+      <c r="M31" s="6" t="n"/>
+      <c r="N31" s="6" t="n"/>
+      <c r="O31" s="19" t="n"/>
+      <c r="P31" s="6" t="n"/>
+      <c r="Q31" s="6" t="n"/>
+      <c r="R31" s="6" t="n"/>
+      <c r="S31" s="6" t="n"/>
+      <c r="T31" s="6" t="n"/>
+      <c r="U31" s="6" t="n"/>
+      <c r="V31" s="6" t="n"/>
+      <c r="W31" s="6" t="n"/>
+      <c r="X31" s="6" t="n"/>
+      <c r="Y31" s="6" t="n"/>
+      <c r="Z31" s="6" t="n"/>
+      <c r="AA31" s="6" t="n"/>
+      <c r="AB31" s="6" t="n"/>
+      <c r="AC31" s="6" t="n"/>
+      <c r="AD31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="n"/>
-      <c r="Q32" s="2" t="n"/>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
-      <c r="W32" s="2" t="n"/>
-      <c r="X32" s="2" t="n"/>
-      <c r="Y32" s="2" t="n"/>
-      <c r="Z32" s="2" t="n"/>
-      <c r="AA32" s="2" t="n"/>
-      <c r="AB32" s="2" t="n"/>
-      <c r="AC32" s="2" t="n"/>
-      <c r="AD32" s="2" t="n"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Food expenses are on the Lower End of recommended levels. Good work.</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
+      <c r="I32" s="6" t="n"/>
+      <c r="J32" s="6" t="n"/>
+      <c r="K32" s="6" t="n"/>
+      <c r="L32" s="6" t="n"/>
+      <c r="M32" s="6" t="n"/>
+      <c r="N32" s="6" t="n"/>
+      <c r="O32" s="19" t="n"/>
+      <c r="P32" s="6" t="n"/>
+      <c r="Q32" s="6" t="n"/>
+      <c r="R32" s="6" t="n"/>
+      <c r="S32" s="6" t="n"/>
+      <c r="T32" s="6" t="n"/>
+      <c r="U32" s="6" t="n"/>
+      <c r="V32" s="6" t="n"/>
+      <c r="W32" s="6" t="n"/>
+      <c r="X32" s="6" t="n"/>
+      <c r="Y32" s="6" t="n"/>
+      <c r="Z32" s="6" t="n"/>
+      <c r="AA32" s="6" t="n"/>
+      <c r="AB32" s="6" t="n"/>
+      <c r="AC32" s="6" t="n"/>
+      <c r="AD32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
-      <c r="W33" s="2" t="n"/>
-      <c r="X33" s="2" t="n"/>
-      <c r="Y33" s="2" t="n"/>
-      <c r="Z33" s="2" t="n"/>
-      <c r="AA33" s="2" t="n"/>
-      <c r="AB33" s="2" t="n"/>
-      <c r="AC33" s="2" t="n"/>
-      <c r="AD33" s="2" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Personal expenses are at recommended levels. Keep them here or lower if possible.</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="6" t="n"/>
+      <c r="I33" s="6" t="n"/>
+      <c r="J33" s="6" t="n"/>
+      <c r="K33" s="6" t="n"/>
+      <c r="L33" s="6" t="n"/>
+      <c r="M33" s="6" t="n"/>
+      <c r="N33" s="6" t="n"/>
+      <c r="O33" s="19" t="n"/>
+      <c r="P33" s="6" t="n"/>
+      <c r="Q33" s="6" t="n"/>
+      <c r="R33" s="6" t="n"/>
+      <c r="S33" s="6" t="n"/>
+      <c r="T33" s="6" t="n"/>
+      <c r="U33" s="6" t="n"/>
+      <c r="V33" s="6" t="n"/>
+      <c r="W33" s="6" t="n"/>
+      <c r="X33" s="6" t="n"/>
+      <c r="Y33" s="6" t="n"/>
+      <c r="Z33" s="6" t="n"/>
+      <c r="AA33" s="6" t="n"/>
+      <c r="AB33" s="6" t="n"/>
+      <c r="AC33" s="6" t="n"/>
+      <c r="AD33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="n"/>
-      <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
-      <c r="W34" s="2" t="n"/>
-      <c r="X34" s="2" t="n"/>
-      <c r="Y34" s="2" t="n"/>
-      <c r="Z34" s="2" t="n"/>
-      <c r="AA34" s="2" t="n"/>
-      <c r="AB34" s="2" t="n"/>
-      <c r="AC34" s="2" t="n"/>
-      <c r="AD34" s="2" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Entertainment expenses are at a Very High level, please consider reviewing this category further.</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="6" t="n"/>
+      <c r="I34" s="6" t="n"/>
+      <c r="J34" s="6" t="n"/>
+      <c r="K34" s="6" t="n"/>
+      <c r="L34" s="6" t="n"/>
+      <c r="M34" s="6" t="n"/>
+      <c r="N34" s="6" t="n"/>
+      <c r="O34" s="19" t="n"/>
+      <c r="P34" s="6" t="n"/>
+      <c r="Q34" s="6" t="n"/>
+      <c r="R34" s="6" t="n"/>
+      <c r="S34" s="6" t="n"/>
+      <c r="T34" s="6" t="n"/>
+      <c r="U34" s="6" t="n"/>
+      <c r="V34" s="6" t="n"/>
+      <c r="W34" s="6" t="n"/>
+      <c r="X34" s="6" t="n"/>
+      <c r="Y34" s="6" t="n"/>
+      <c r="Z34" s="6" t="n"/>
+      <c r="AA34" s="6" t="n"/>
+      <c r="AB34" s="6" t="n"/>
+      <c r="AC34" s="6" t="n"/>
+      <c r="AD34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="2" t="n"/>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="n"/>
-      <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
-      <c r="W35" s="2" t="n"/>
-      <c r="X35" s="2" t="n"/>
-      <c r="Y35" s="2" t="n"/>
-      <c r="Z35" s="2" t="n"/>
-      <c r="AA35" s="2" t="n"/>
-      <c r="AB35" s="2" t="n"/>
-      <c r="AC35" s="2" t="n"/>
-      <c r="AD35" s="2" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Utilities expenses are at a Very High level, please consider reviewing this category further.</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="6" t="n"/>
+      <c r="I35" s="6" t="n"/>
+      <c r="J35" s="6" t="n"/>
+      <c r="K35" s="6" t="n"/>
+      <c r="L35" s="6" t="n"/>
+      <c r="M35" s="6" t="n"/>
+      <c r="N35" s="6" t="n"/>
+      <c r="O35" s="19" t="n"/>
+      <c r="P35" s="6" t="n"/>
+      <c r="Q35" s="6" t="n"/>
+      <c r="R35" s="6" t="n"/>
+      <c r="S35" s="6" t="n"/>
+      <c r="T35" s="6" t="n"/>
+      <c r="U35" s="6" t="n"/>
+      <c r="V35" s="6" t="n"/>
+      <c r="W35" s="6" t="n"/>
+      <c r="X35" s="6" t="n"/>
+      <c r="Y35" s="6" t="n"/>
+      <c r="Z35" s="6" t="n"/>
+      <c r="AA35" s="6" t="n"/>
+      <c r="AB35" s="6" t="n"/>
+      <c r="AC35" s="6" t="n"/>
+      <c r="AD35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
-      <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
-      <c r="W36" s="2" t="n"/>
-      <c r="X36" s="2" t="n"/>
-      <c r="Y36" s="2" t="n"/>
-      <c r="Z36" s="2" t="n"/>
-      <c r="AA36" s="2" t="n"/>
-      <c r="AB36" s="2" t="n"/>
-      <c r="AC36" s="2" t="n"/>
-      <c r="AD36" s="2" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="20" t="n"/>
+      <c r="C36" s="21" t="n"/>
+      <c r="D36" s="21" t="n"/>
+      <c r="E36" s="21" t="n"/>
+      <c r="F36" s="21" t="n"/>
+      <c r="G36" s="21" t="n"/>
+      <c r="H36" s="21" t="n"/>
+      <c r="I36" s="21" t="n"/>
+      <c r="J36" s="21" t="n"/>
+      <c r="K36" s="21" t="n"/>
+      <c r="L36" s="21" t="n"/>
+      <c r="M36" s="21" t="n"/>
+      <c r="N36" s="21" t="n"/>
+      <c r="O36" s="22" t="n"/>
+      <c r="P36" s="6" t="n"/>
+      <c r="Q36" s="6" t="n"/>
+      <c r="R36" s="6" t="n"/>
+      <c r="S36" s="6" t="n"/>
+      <c r="T36" s="6" t="n"/>
+      <c r="U36" s="6" t="n"/>
+      <c r="V36" s="6" t="n"/>
+      <c r="W36" s="6" t="n"/>
+      <c r="X36" s="6" t="n"/>
+      <c r="Y36" s="6" t="n"/>
+      <c r="Z36" s="6" t="n"/>
+      <c r="AA36" s="6" t="n"/>
+      <c r="AB36" s="6" t="n"/>
+      <c r="AC36" s="6" t="n"/>
+      <c r="AD36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="2" t="n"/>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
-      <c r="T37" s="2" t="n"/>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
-      <c r="W37" s="2" t="n"/>
-      <c r="X37" s="2" t="n"/>
-      <c r="Y37" s="2" t="n"/>
-      <c r="Z37" s="2" t="n"/>
-      <c r="AA37" s="2" t="n"/>
-      <c r="AB37" s="2" t="n"/>
-      <c r="AC37" s="2" t="n"/>
-      <c r="AD37" s="2" t="n"/>
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="E37" s="6" t="n"/>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="6" t="n"/>
+      <c r="I37" s="6" t="n"/>
+      <c r="J37" s="6" t="n"/>
+      <c r="K37" s="6" t="n"/>
+      <c r="L37" s="6" t="n"/>
+      <c r="M37" s="6" t="n"/>
+      <c r="N37" s="6" t="n"/>
+      <c r="O37" s="6" t="n"/>
+      <c r="P37" s="6" t="n"/>
+      <c r="Q37" s="6" t="n"/>
+      <c r="R37" s="6" t="n"/>
+      <c r="S37" s="6" t="n"/>
+      <c r="T37" s="6" t="n"/>
+      <c r="U37" s="6" t="n"/>
+      <c r="V37" s="6" t="n"/>
+      <c r="W37" s="6" t="n"/>
+      <c r="X37" s="6" t="n"/>
+      <c r="Y37" s="6" t="n"/>
+      <c r="Z37" s="6" t="n"/>
+      <c r="AA37" s="6" t="n"/>
+      <c r="AB37" s="6" t="n"/>
+      <c r="AC37" s="6" t="n"/>
+      <c r="AD37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
-      <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="n"/>
-      <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="n"/>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="n"/>
-      <c r="W38" s="2" t="n"/>
-      <c r="X38" s="2" t="n"/>
-      <c r="Y38" s="2" t="n"/>
-      <c r="Z38" s="2" t="n"/>
-      <c r="AA38" s="2" t="n"/>
-      <c r="AB38" s="2" t="n"/>
-      <c r="AC38" s="2" t="n"/>
-      <c r="AD38" s="2" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="6" t="n"/>
+      <c r="I38" s="6" t="n"/>
+      <c r="J38" s="6" t="n"/>
+      <c r="K38" s="6" t="n"/>
+      <c r="L38" s="6" t="n"/>
+      <c r="M38" s="6" t="n"/>
+      <c r="N38" s="6" t="n"/>
+      <c r="O38" s="6" t="n"/>
+      <c r="P38" s="6" t="n"/>
+      <c r="Q38" s="6" t="n"/>
+      <c r="R38" s="6" t="n"/>
+      <c r="S38" s="6" t="n"/>
+      <c r="T38" s="6" t="n"/>
+      <c r="U38" s="6" t="n"/>
+      <c r="V38" s="6" t="n"/>
+      <c r="W38" s="6" t="n"/>
+      <c r="X38" s="6" t="n"/>
+      <c r="Y38" s="6" t="n"/>
+      <c r="Z38" s="6" t="n"/>
+      <c r="AA38" s="6" t="n"/>
+      <c r="AB38" s="6" t="n"/>
+      <c r="AC38" s="6" t="n"/>
+      <c r="AD38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
-      <c r="T39" s="2" t="n"/>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
-      <c r="W39" s="2" t="n"/>
-      <c r="X39" s="2" t="n"/>
-      <c r="Y39" s="2" t="n"/>
-      <c r="Z39" s="2" t="n"/>
-      <c r="AA39" s="2" t="n"/>
-      <c r="AB39" s="2" t="n"/>
-      <c r="AC39" s="2" t="n"/>
-      <c r="AD39" s="2" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="6" t="n"/>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="6" t="n"/>
+      <c r="I39" s="6" t="n"/>
+      <c r="J39" s="6" t="n"/>
+      <c r="K39" s="6" t="n"/>
+      <c r="L39" s="6" t="n"/>
+      <c r="M39" s="6" t="n"/>
+      <c r="N39" s="6" t="n"/>
+      <c r="O39" s="6" t="n"/>
+      <c r="P39" s="6" t="n"/>
+      <c r="Q39" s="6" t="n"/>
+      <c r="R39" s="6" t="n"/>
+      <c r="S39" s="6" t="n"/>
+      <c r="T39" s="6" t="n"/>
+      <c r="U39" s="6" t="n"/>
+      <c r="V39" s="6" t="n"/>
+      <c r="W39" s="6" t="n"/>
+      <c r="X39" s="6" t="n"/>
+      <c r="Y39" s="6" t="n"/>
+      <c r="Z39" s="6" t="n"/>
+      <c r="AA39" s="6" t="n"/>
+      <c r="AB39" s="6" t="n"/>
+      <c r="AC39" s="6" t="n"/>
+      <c r="AD39" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2057,1252 +2461,1252 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+      <c r="P1" s="6" t="n"/>
+      <c r="Q1" s="6" t="n"/>
+      <c r="R1" s="6" t="n"/>
+      <c r="S1" s="6" t="n"/>
+      <c r="T1" s="6" t="n"/>
+      <c r="U1" s="6" t="n"/>
+      <c r="V1" s="6" t="n"/>
+      <c r="W1" s="6" t="n"/>
+      <c r="X1" s="6" t="n"/>
+      <c r="Y1" s="6" t="n"/>
+      <c r="Z1" s="6" t="n"/>
+      <c r="AA1" s="6" t="n"/>
+      <c r="AB1" s="6" t="n"/>
+      <c r="AC1" s="6" t="n"/>
+      <c r="AD1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
-      <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="n"/>
-      <c r="AA2" s="2" t="n"/>
-      <c r="AB2" s="2" t="n"/>
-      <c r="AC2" s="2" t="n"/>
-      <c r="AD2" s="2" t="n"/>
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="6" t="n"/>
+      <c r="X2" s="6" t="n"/>
+      <c r="Y2" s="6" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="6" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-      <c r="X3" s="2" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
-      <c r="AA3" s="2" t="n"/>
-      <c r="AB3" s="2" t="n"/>
-      <c r="AC3" s="2" t="n"/>
-      <c r="AD3" s="2" t="n"/>
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="6" t="n"/>
+      <c r="U3" s="6" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="6" t="n"/>
+      <c r="X3" s="6" t="n"/>
+      <c r="Y3" s="6" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="6" t="n"/>
+      <c r="AC3" s="6" t="n"/>
+      <c r="AD3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
-      <c r="X4" s="2" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="2" t="n"/>
-      <c r="AD4" s="2" t="n"/>
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+      <c r="U4" s="6" t="n"/>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="6" t="n"/>
+      <c r="X4" s="6" t="n"/>
+      <c r="Y4" s="6" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="6" t="n"/>
+      <c r="AB4" s="6" t="n"/>
+      <c r="AC4" s="6" t="n"/>
+      <c r="AD4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
-      <c r="W5" s="2" t="n"/>
-      <c r="X5" s="2" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
-      <c r="AA5" s="2" t="n"/>
-      <c r="AB5" s="2" t="n"/>
-      <c r="AC5" s="2" t="n"/>
-      <c r="AD5" s="2" t="n"/>
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="6" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="6" t="n"/>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="T5" s="6" t="n"/>
+      <c r="U5" s="6" t="n"/>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="6" t="n"/>
+      <c r="X5" s="6" t="n"/>
+      <c r="Y5" s="6" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="6" t="n"/>
+      <c r="AB5" s="6" t="n"/>
+      <c r="AC5" s="6" t="n"/>
+      <c r="AD5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="2" t="n"/>
-      <c r="X6" s="2" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="2" t="n"/>
-      <c r="AD6" s="2" t="n"/>
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="6" t="n"/>
+      <c r="X6" s="6" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
+      <c r="AB6" s="6" t="n"/>
+      <c r="AC6" s="6" t="n"/>
+      <c r="AD6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
-      <c r="W7" s="2" t="n"/>
-      <c r="X7" s="2" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
-      <c r="AA7" s="2" t="n"/>
-      <c r="AB7" s="2" t="n"/>
-      <c r="AC7" s="2" t="n"/>
-      <c r="AD7" s="2" t="n"/>
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="6" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="6" t="n"/>
+      <c r="O7" s="6" t="n"/>
+      <c r="P7" s="6" t="n"/>
+      <c r="Q7" s="6" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="6" t="n"/>
+      <c r="X7" s="6" t="n"/>
+      <c r="Y7" s="6" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="6" t="n"/>
+      <c r="AC7" s="6" t="n"/>
+      <c r="AD7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
-      <c r="W8" s="2" t="n"/>
-      <c r="X8" s="2" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
-      <c r="AA8" s="2" t="n"/>
-      <c r="AB8" s="2" t="n"/>
-      <c r="AC8" s="2" t="n"/>
-      <c r="AD8" s="2" t="n"/>
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="6" t="n"/>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="6" t="n"/>
+      <c r="Q8" s="6" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="6" t="n"/>
+      <c r="X8" s="6" t="n"/>
+      <c r="Y8" s="6" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="6" t="n"/>
+      <c r="AC8" s="6" t="n"/>
+      <c r="AD8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
-      <c r="W9" s="2" t="n"/>
-      <c r="X9" s="2" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
-      <c r="AA9" s="2" t="n"/>
-      <c r="AB9" s="2" t="n"/>
-      <c r="AC9" s="2" t="n"/>
-      <c r="AD9" s="2" t="n"/>
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="6" t="n"/>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="6" t="n"/>
+      <c r="O9" s="6" t="n"/>
+      <c r="P9" s="6" t="n"/>
+      <c r="Q9" s="6" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="T9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="6" t="n"/>
+      <c r="X9" s="6" t="n"/>
+      <c r="Y9" s="6" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="6" t="n"/>
+      <c r="AC9" s="6" t="n"/>
+      <c r="AD9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
-      <c r="W10" s="2" t="n"/>
-      <c r="X10" s="2" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
-      <c r="AA10" s="2" t="n"/>
-      <c r="AB10" s="2" t="n"/>
-      <c r="AC10" s="2" t="n"/>
-      <c r="AD10" s="2" t="n"/>
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n"/>
+      <c r="M10" s="6" t="n"/>
+      <c r="N10" s="6" t="n"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="6" t="n"/>
+      <c r="Q10" s="6" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="T10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="6" t="n"/>
+      <c r="X10" s="6" t="n"/>
+      <c r="Y10" s="6" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
+      <c r="AB10" s="6" t="n"/>
+      <c r="AC10" s="6" t="n"/>
+      <c r="AD10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
-      <c r="W11" s="2" t="n"/>
-      <c r="X11" s="2" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
-      <c r="AA11" s="2" t="n"/>
-      <c r="AB11" s="2" t="n"/>
-      <c r="AC11" s="2" t="n"/>
-      <c r="AD11" s="2" t="n"/>
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="6" t="n"/>
+      <c r="M11" s="6" t="n"/>
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="6" t="n"/>
+      <c r="P11" s="6" t="n"/>
+      <c r="Q11" s="6" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="6" t="n"/>
+      <c r="T11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="6" t="n"/>
+      <c r="X11" s="6" t="n"/>
+      <c r="Y11" s="6" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
+      <c r="AB11" s="6" t="n"/>
+      <c r="AC11" s="6" t="n"/>
+      <c r="AD11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
-      <c r="W12" s="2" t="n"/>
-      <c r="X12" s="2" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
-      <c r="AB12" s="2" t="n"/>
-      <c r="AC12" s="2" t="n"/>
-      <c r="AD12" s="2" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="6" t="n"/>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="P12" s="6" t="n"/>
+      <c r="Q12" s="6" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="6" t="n"/>
+      <c r="T12" s="6" t="n"/>
+      <c r="U12" s="6" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="6" t="n"/>
+      <c r="X12" s="6" t="n"/>
+      <c r="Y12" s="6" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
+      <c r="AB12" s="6" t="n"/>
+      <c r="AC12" s="6" t="n"/>
+      <c r="AD12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
-      <c r="W13" s="2" t="n"/>
-      <c r="X13" s="2" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="2" t="n"/>
-      <c r="AB13" s="2" t="n"/>
-      <c r="AC13" s="2" t="n"/>
-      <c r="AD13" s="2" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
+      <c r="P13" s="6" t="n"/>
+      <c r="Q13" s="6" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="6" t="n"/>
+      <c r="T13" s="6" t="n"/>
+      <c r="U13" s="6" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="6" t="n"/>
+      <c r="X13" s="6" t="n"/>
+      <c r="Y13" s="6" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="6" t="n"/>
+      <c r="AB13" s="6" t="n"/>
+      <c r="AC13" s="6" t="n"/>
+      <c r="AD13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
-      <c r="W14" s="2" t="n"/>
-      <c r="X14" s="2" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
-      <c r="AA14" s="2" t="n"/>
-      <c r="AB14" s="2" t="n"/>
-      <c r="AC14" s="2" t="n"/>
-      <c r="AD14" s="2" t="n"/>
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="6" t="n"/>
+      <c r="K14" s="6" t="n"/>
+      <c r="L14" s="6" t="n"/>
+      <c r="M14" s="6" t="n"/>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="6" t="n"/>
+      <c r="Q14" s="6" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="6" t="n"/>
+      <c r="T14" s="6" t="n"/>
+      <c r="U14" s="6" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="6" t="n"/>
+      <c r="X14" s="6" t="n"/>
+      <c r="Y14" s="6" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="6" t="n"/>
+      <c r="AB14" s="6" t="n"/>
+      <c r="AC14" s="6" t="n"/>
+      <c r="AD14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
-      <c r="W15" s="2" t="n"/>
-      <c r="X15" s="2" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="2" t="n"/>
-      <c r="AB15" s="2" t="n"/>
-      <c r="AC15" s="2" t="n"/>
-      <c r="AD15" s="2" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="6" t="n"/>
+      <c r="J15" s="6" t="n"/>
+      <c r="K15" s="6" t="n"/>
+      <c r="L15" s="6" t="n"/>
+      <c r="M15" s="6" t="n"/>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="6" t="n"/>
+      <c r="P15" s="6" t="n"/>
+      <c r="Q15" s="6" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="6" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="6" t="n"/>
+      <c r="X15" s="6" t="n"/>
+      <c r="Y15" s="6" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="6" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
-      <c r="W16" s="2" t="n"/>
-      <c r="X16" s="2" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
-      <c r="AA16" s="2" t="n"/>
-      <c r="AB16" s="2" t="n"/>
-      <c r="AC16" s="2" t="n"/>
-      <c r="AD16" s="2" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="6" t="n"/>
+      <c r="J16" s="6" t="n"/>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="6" t="n"/>
+      <c r="M16" s="6" t="n"/>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="6" t="n"/>
+      <c r="P16" s="6" t="n"/>
+      <c r="Q16" s="6" t="n"/>
+      <c r="R16" s="6" t="n"/>
+      <c r="S16" s="6" t="n"/>
+      <c r="T16" s="6" t="n"/>
+      <c r="U16" s="6" t="n"/>
+      <c r="V16" s="6" t="n"/>
+      <c r="W16" s="6" t="n"/>
+      <c r="X16" s="6" t="n"/>
+      <c r="Y16" s="6" t="n"/>
+      <c r="Z16" s="6" t="n"/>
+      <c r="AA16" s="6" t="n"/>
+      <c r="AB16" s="6" t="n"/>
+      <c r="AC16" s="6" t="n"/>
+      <c r="AD16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
-      <c r="W17" s="2" t="n"/>
-      <c r="X17" s="2" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
-      <c r="AA17" s="2" t="n"/>
-      <c r="AB17" s="2" t="n"/>
-      <c r="AC17" s="2" t="n"/>
-      <c r="AD17" s="2" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="6" t="n"/>
+      <c r="L17" s="6" t="n"/>
+      <c r="M17" s="6" t="n"/>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="6" t="n"/>
+      <c r="P17" s="6" t="n"/>
+      <c r="Q17" s="6" t="n"/>
+      <c r="R17" s="6" t="n"/>
+      <c r="S17" s="6" t="n"/>
+      <c r="T17" s="6" t="n"/>
+      <c r="U17" s="6" t="n"/>
+      <c r="V17" s="6" t="n"/>
+      <c r="W17" s="6" t="n"/>
+      <c r="X17" s="6" t="n"/>
+      <c r="Y17" s="6" t="n"/>
+      <c r="Z17" s="6" t="n"/>
+      <c r="AA17" s="6" t="n"/>
+      <c r="AB17" s="6" t="n"/>
+      <c r="AC17" s="6" t="n"/>
+      <c r="AD17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
-      <c r="X18" s="2" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
-      <c r="AA18" s="2" t="n"/>
-      <c r="AB18" s="2" t="n"/>
-      <c r="AC18" s="2" t="n"/>
-      <c r="AD18" s="2" t="n"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="6" t="n"/>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="6" t="n"/>
+      <c r="L18" s="6" t="n"/>
+      <c r="M18" s="6" t="n"/>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="6" t="n"/>
+      <c r="P18" s="6" t="n"/>
+      <c r="Q18" s="6" t="n"/>
+      <c r="R18" s="6" t="n"/>
+      <c r="S18" s="6" t="n"/>
+      <c r="T18" s="6" t="n"/>
+      <c r="U18" s="6" t="n"/>
+      <c r="V18" s="6" t="n"/>
+      <c r="W18" s="6" t="n"/>
+      <c r="X18" s="6" t="n"/>
+      <c r="Y18" s="6" t="n"/>
+      <c r="Z18" s="6" t="n"/>
+      <c r="AA18" s="6" t="n"/>
+      <c r="AB18" s="6" t="n"/>
+      <c r="AC18" s="6" t="n"/>
+      <c r="AD18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="n"/>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
-      <c r="W19" s="2" t="n"/>
-      <c r="X19" s="2" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="Z19" s="2" t="n"/>
-      <c r="AA19" s="2" t="n"/>
-      <c r="AB19" s="2" t="n"/>
-      <c r="AC19" s="2" t="n"/>
-      <c r="AD19" s="2" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="n"/>
+      <c r="I19" s="6" t="n"/>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="6" t="n"/>
+      <c r="L19" s="6" t="n"/>
+      <c r="M19" s="6" t="n"/>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="6" t="n"/>
+      <c r="P19" s="6" t="n"/>
+      <c r="Q19" s="6" t="n"/>
+      <c r="R19" s="6" t="n"/>
+      <c r="S19" s="6" t="n"/>
+      <c r="T19" s="6" t="n"/>
+      <c r="U19" s="6" t="n"/>
+      <c r="V19" s="6" t="n"/>
+      <c r="W19" s="6" t="n"/>
+      <c r="X19" s="6" t="n"/>
+      <c r="Y19" s="6" t="n"/>
+      <c r="Z19" s="6" t="n"/>
+      <c r="AA19" s="6" t="n"/>
+      <c r="AB19" s="6" t="n"/>
+      <c r="AC19" s="6" t="n"/>
+      <c r="AD19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="2" t="n"/>
-      <c r="X20" s="2" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="Z20" s="2" t="n"/>
-      <c r="AA20" s="2" t="n"/>
-      <c r="AB20" s="2" t="n"/>
-      <c r="AC20" s="2" t="n"/>
-      <c r="AD20" s="2" t="n"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="6" t="n"/>
+      <c r="J20" s="6" t="n"/>
+      <c r="K20" s="6" t="n"/>
+      <c r="L20" s="6" t="n"/>
+      <c r="M20" s="6" t="n"/>
+      <c r="N20" s="6" t="n"/>
+      <c r="O20" s="6" t="n"/>
+      <c r="P20" s="6" t="n"/>
+      <c r="Q20" s="6" t="n"/>
+      <c r="R20" s="6" t="n"/>
+      <c r="S20" s="6" t="n"/>
+      <c r="T20" s="6" t="n"/>
+      <c r="U20" s="6" t="n"/>
+      <c r="V20" s="6" t="n"/>
+      <c r="W20" s="6" t="n"/>
+      <c r="X20" s="6" t="n"/>
+      <c r="Y20" s="6" t="n"/>
+      <c r="Z20" s="6" t="n"/>
+      <c r="AA20" s="6" t="n"/>
+      <c r="AB20" s="6" t="n"/>
+      <c r="AC20" s="6" t="n"/>
+      <c r="AD20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
-      <c r="W21" s="2" t="n"/>
-      <c r="X21" s="2" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="Z21" s="2" t="n"/>
-      <c r="AA21" s="2" t="n"/>
-      <c r="AB21" s="2" t="n"/>
-      <c r="AC21" s="2" t="n"/>
-      <c r="AD21" s="2" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="6" t="n"/>
+      <c r="J21" s="6" t="n"/>
+      <c r="K21" s="6" t="n"/>
+      <c r="L21" s="6" t="n"/>
+      <c r="M21" s="6" t="n"/>
+      <c r="N21" s="6" t="n"/>
+      <c r="O21" s="6" t="n"/>
+      <c r="P21" s="6" t="n"/>
+      <c r="Q21" s="6" t="n"/>
+      <c r="R21" s="6" t="n"/>
+      <c r="S21" s="6" t="n"/>
+      <c r="T21" s="6" t="n"/>
+      <c r="U21" s="6" t="n"/>
+      <c r="V21" s="6" t="n"/>
+      <c r="W21" s="6" t="n"/>
+      <c r="X21" s="6" t="n"/>
+      <c r="Y21" s="6" t="n"/>
+      <c r="Z21" s="6" t="n"/>
+      <c r="AA21" s="6" t="n"/>
+      <c r="AB21" s="6" t="n"/>
+      <c r="AC21" s="6" t="n"/>
+      <c r="AD21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="R22" s="2" t="n"/>
-      <c r="S22" s="2" t="n"/>
-      <c r="T22" s="2" t="n"/>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
-      <c r="W22" s="2" t="n"/>
-      <c r="X22" s="2" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="Z22" s="2" t="n"/>
-      <c r="AA22" s="2" t="n"/>
-      <c r="AB22" s="2" t="n"/>
-      <c r="AC22" s="2" t="n"/>
-      <c r="AD22" s="2" t="n"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="n"/>
+      <c r="I22" s="6" t="n"/>
+      <c r="J22" s="6" t="n"/>
+      <c r="K22" s="6" t="n"/>
+      <c r="L22" s="6" t="n"/>
+      <c r="M22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
+      <c r="O22" s="6" t="n"/>
+      <c r="P22" s="6" t="n"/>
+      <c r="Q22" s="6" t="n"/>
+      <c r="R22" s="6" t="n"/>
+      <c r="S22" s="6" t="n"/>
+      <c r="T22" s="6" t="n"/>
+      <c r="U22" s="6" t="n"/>
+      <c r="V22" s="6" t="n"/>
+      <c r="W22" s="6" t="n"/>
+      <c r="X22" s="6" t="n"/>
+      <c r="Y22" s="6" t="n"/>
+      <c r="Z22" s="6" t="n"/>
+      <c r="AA22" s="6" t="n"/>
+      <c r="AB22" s="6" t="n"/>
+      <c r="AC22" s="6" t="n"/>
+      <c r="AD22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="n"/>
-      <c r="T23" s="2" t="n"/>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
-      <c r="W23" s="2" t="n"/>
-      <c r="X23" s="2" t="n"/>
-      <c r="Y23" s="2" t="n"/>
-      <c r="Z23" s="2" t="n"/>
-      <c r="AA23" s="2" t="n"/>
-      <c r="AB23" s="2" t="n"/>
-      <c r="AC23" s="2" t="n"/>
-      <c r="AD23" s="2" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="6" t="n"/>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="6" t="n"/>
+      <c r="L23" s="6" t="n"/>
+      <c r="M23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
+      <c r="O23" s="6" t="n"/>
+      <c r="P23" s="6" t="n"/>
+      <c r="Q23" s="6" t="n"/>
+      <c r="R23" s="6" t="n"/>
+      <c r="S23" s="6" t="n"/>
+      <c r="T23" s="6" t="n"/>
+      <c r="U23" s="6" t="n"/>
+      <c r="V23" s="6" t="n"/>
+      <c r="W23" s="6" t="n"/>
+      <c r="X23" s="6" t="n"/>
+      <c r="Y23" s="6" t="n"/>
+      <c r="Z23" s="6" t="n"/>
+      <c r="AA23" s="6" t="n"/>
+      <c r="AB23" s="6" t="n"/>
+      <c r="AC23" s="6" t="n"/>
+      <c r="AD23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="n"/>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
-      <c r="W24" s="2" t="n"/>
-      <c r="X24" s="2" t="n"/>
-      <c r="Y24" s="2" t="n"/>
-      <c r="Z24" s="2" t="n"/>
-      <c r="AA24" s="2" t="n"/>
-      <c r="AB24" s="2" t="n"/>
-      <c r="AC24" s="2" t="n"/>
-      <c r="AD24" s="2" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="6" t="n"/>
+      <c r="L24" s="6" t="n"/>
+      <c r="M24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="6" t="n"/>
+      <c r="P24" s="6" t="n"/>
+      <c r="Q24" s="6" t="n"/>
+      <c r="R24" s="6" t="n"/>
+      <c r="S24" s="6" t="n"/>
+      <c r="T24" s="6" t="n"/>
+      <c r="U24" s="6" t="n"/>
+      <c r="V24" s="6" t="n"/>
+      <c r="W24" s="6" t="n"/>
+      <c r="X24" s="6" t="n"/>
+      <c r="Y24" s="6" t="n"/>
+      <c r="Z24" s="6" t="n"/>
+      <c r="AA24" s="6" t="n"/>
+      <c r="AB24" s="6" t="n"/>
+      <c r="AC24" s="6" t="n"/>
+      <c r="AD24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
-      <c r="S25" s="2" t="n"/>
-      <c r="T25" s="2" t="n"/>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
-      <c r="W25" s="2" t="n"/>
-      <c r="X25" s="2" t="n"/>
-      <c r="Y25" s="2" t="n"/>
-      <c r="Z25" s="2" t="n"/>
-      <c r="AA25" s="2" t="n"/>
-      <c r="AB25" s="2" t="n"/>
-      <c r="AC25" s="2" t="n"/>
-      <c r="AD25" s="2" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
+      <c r="I25" s="6" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="6" t="n"/>
+      <c r="Q25" s="6" t="n"/>
+      <c r="R25" s="6" t="n"/>
+      <c r="S25" s="6" t="n"/>
+      <c r="T25" s="6" t="n"/>
+      <c r="U25" s="6" t="n"/>
+      <c r="V25" s="6" t="n"/>
+      <c r="W25" s="6" t="n"/>
+      <c r="X25" s="6" t="n"/>
+      <c r="Y25" s="6" t="n"/>
+      <c r="Z25" s="6" t="n"/>
+      <c r="AA25" s="6" t="n"/>
+      <c r="AB25" s="6" t="n"/>
+      <c r="AC25" s="6" t="n"/>
+      <c r="AD25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="n"/>
-      <c r="T26" s="2" t="n"/>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
-      <c r="W26" s="2" t="n"/>
-      <c r="X26" s="2" t="n"/>
-      <c r="Y26" s="2" t="n"/>
-      <c r="Z26" s="2" t="n"/>
-      <c r="AA26" s="2" t="n"/>
-      <c r="AB26" s="2" t="n"/>
-      <c r="AC26" s="2" t="n"/>
-      <c r="AD26" s="2" t="n"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="n"/>
+      <c r="I26" s="6" t="n"/>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="6" t="n"/>
+      <c r="Q26" s="6" t="n"/>
+      <c r="R26" s="6" t="n"/>
+      <c r="S26" s="6" t="n"/>
+      <c r="T26" s="6" t="n"/>
+      <c r="U26" s="6" t="n"/>
+      <c r="V26" s="6" t="n"/>
+      <c r="W26" s="6" t="n"/>
+      <c r="X26" s="6" t="n"/>
+      <c r="Y26" s="6" t="n"/>
+      <c r="Z26" s="6" t="n"/>
+      <c r="AA26" s="6" t="n"/>
+      <c r="AB26" s="6" t="n"/>
+      <c r="AC26" s="6" t="n"/>
+      <c r="AD26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
-      <c r="T27" s="2" t="n"/>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
-      <c r="W27" s="2" t="n"/>
-      <c r="X27" s="2" t="n"/>
-      <c r="Y27" s="2" t="n"/>
-      <c r="Z27" s="2" t="n"/>
-      <c r="AA27" s="2" t="n"/>
-      <c r="AB27" s="2" t="n"/>
-      <c r="AC27" s="2" t="n"/>
-      <c r="AD27" s="2" t="n"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
+      <c r="I27" s="6" t="n"/>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="6" t="n"/>
+      <c r="Q27" s="6" t="n"/>
+      <c r="R27" s="6" t="n"/>
+      <c r="S27" s="6" t="n"/>
+      <c r="T27" s="6" t="n"/>
+      <c r="U27" s="6" t="n"/>
+      <c r="V27" s="6" t="n"/>
+      <c r="W27" s="6" t="n"/>
+      <c r="X27" s="6" t="n"/>
+      <c r="Y27" s="6" t="n"/>
+      <c r="Z27" s="6" t="n"/>
+      <c r="AA27" s="6" t="n"/>
+      <c r="AB27" s="6" t="n"/>
+      <c r="AC27" s="6" t="n"/>
+      <c r="AD27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="n"/>
-      <c r="Q28" s="2" t="n"/>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="n"/>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
-      <c r="W28" s="2" t="n"/>
-      <c r="X28" s="2" t="n"/>
-      <c r="Y28" s="2" t="n"/>
-      <c r="Z28" s="2" t="n"/>
-      <c r="AA28" s="2" t="n"/>
-      <c r="AB28" s="2" t="n"/>
-      <c r="AC28" s="2" t="n"/>
-      <c r="AD28" s="2" t="n"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
+      <c r="I28" s="6" t="n"/>
+      <c r="J28" s="6" t="n"/>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="6" t="n"/>
+      <c r="M28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
+      <c r="O28" s="6" t="n"/>
+      <c r="P28" s="6" t="n"/>
+      <c r="Q28" s="6" t="n"/>
+      <c r="R28" s="6" t="n"/>
+      <c r="S28" s="6" t="n"/>
+      <c r="T28" s="6" t="n"/>
+      <c r="U28" s="6" t="n"/>
+      <c r="V28" s="6" t="n"/>
+      <c r="W28" s="6" t="n"/>
+      <c r="X28" s="6" t="n"/>
+      <c r="Y28" s="6" t="n"/>
+      <c r="Z28" s="6" t="n"/>
+      <c r="AA28" s="6" t="n"/>
+      <c r="AB28" s="6" t="n"/>
+      <c r="AC28" s="6" t="n"/>
+      <c r="AD28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="2" t="n"/>
-      <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
-      <c r="W29" s="2" t="n"/>
-      <c r="X29" s="2" t="n"/>
-      <c r="Y29" s="2" t="n"/>
-      <c r="Z29" s="2" t="n"/>
-      <c r="AA29" s="2" t="n"/>
-      <c r="AB29" s="2" t="n"/>
-      <c r="AC29" s="2" t="n"/>
-      <c r="AD29" s="2" t="n"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="6" t="n"/>
+      <c r="Q29" s="6" t="n"/>
+      <c r="R29" s="6" t="n"/>
+      <c r="S29" s="6" t="n"/>
+      <c r="T29" s="6" t="n"/>
+      <c r="U29" s="6" t="n"/>
+      <c r="V29" s="6" t="n"/>
+      <c r="W29" s="6" t="n"/>
+      <c r="X29" s="6" t="n"/>
+      <c r="Y29" s="6" t="n"/>
+      <c r="Z29" s="6" t="n"/>
+      <c r="AA29" s="6" t="n"/>
+      <c r="AB29" s="6" t="n"/>
+      <c r="AC29" s="6" t="n"/>
+      <c r="AD29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
-      <c r="R30" s="2" t="n"/>
-      <c r="S30" s="2" t="n"/>
-      <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
-      <c r="W30" s="2" t="n"/>
-      <c r="X30" s="2" t="n"/>
-      <c r="Y30" s="2" t="n"/>
-      <c r="Z30" s="2" t="n"/>
-      <c r="AA30" s="2" t="n"/>
-      <c r="AB30" s="2" t="n"/>
-      <c r="AC30" s="2" t="n"/>
-      <c r="AD30" s="2" t="n"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="n"/>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="n"/>
+      <c r="M30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="6" t="n"/>
+      <c r="P30" s="6" t="n"/>
+      <c r="Q30" s="6" t="n"/>
+      <c r="R30" s="6" t="n"/>
+      <c r="S30" s="6" t="n"/>
+      <c r="T30" s="6" t="n"/>
+      <c r="U30" s="6" t="n"/>
+      <c r="V30" s="6" t="n"/>
+      <c r="W30" s="6" t="n"/>
+      <c r="X30" s="6" t="n"/>
+      <c r="Y30" s="6" t="n"/>
+      <c r="Z30" s="6" t="n"/>
+      <c r="AA30" s="6" t="n"/>
+      <c r="AB30" s="6" t="n"/>
+      <c r="AC30" s="6" t="n"/>
+      <c r="AD30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="n"/>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="n"/>
-      <c r="T31" s="2" t="n"/>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
-      <c r="W31" s="2" t="n"/>
-      <c r="X31" s="2" t="n"/>
-      <c r="Y31" s="2" t="n"/>
-      <c r="Z31" s="2" t="n"/>
-      <c r="AA31" s="2" t="n"/>
-      <c r="AB31" s="2" t="n"/>
-      <c r="AC31" s="2" t="n"/>
-      <c r="AD31" s="2" t="n"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="6" t="n"/>
+      <c r="I31" s="6" t="n"/>
+      <c r="J31" s="6" t="n"/>
+      <c r="K31" s="6" t="n"/>
+      <c r="L31" s="6" t="n"/>
+      <c r="M31" s="6" t="n"/>
+      <c r="N31" s="6" t="n"/>
+      <c r="O31" s="6" t="n"/>
+      <c r="P31" s="6" t="n"/>
+      <c r="Q31" s="6" t="n"/>
+      <c r="R31" s="6" t="n"/>
+      <c r="S31" s="6" t="n"/>
+      <c r="T31" s="6" t="n"/>
+      <c r="U31" s="6" t="n"/>
+      <c r="V31" s="6" t="n"/>
+      <c r="W31" s="6" t="n"/>
+      <c r="X31" s="6" t="n"/>
+      <c r="Y31" s="6" t="n"/>
+      <c r="Z31" s="6" t="n"/>
+      <c r="AA31" s="6" t="n"/>
+      <c r="AB31" s="6" t="n"/>
+      <c r="AC31" s="6" t="n"/>
+      <c r="AD31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="n"/>
-      <c r="Q32" s="2" t="n"/>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
-      <c r="W32" s="2" t="n"/>
-      <c r="X32" s="2" t="n"/>
-      <c r="Y32" s="2" t="n"/>
-      <c r="Z32" s="2" t="n"/>
-      <c r="AA32" s="2" t="n"/>
-      <c r="AB32" s="2" t="n"/>
-      <c r="AC32" s="2" t="n"/>
-      <c r="AD32" s="2" t="n"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
+      <c r="I32" s="6" t="n"/>
+      <c r="J32" s="6" t="n"/>
+      <c r="K32" s="6" t="n"/>
+      <c r="L32" s="6" t="n"/>
+      <c r="M32" s="6" t="n"/>
+      <c r="N32" s="6" t="n"/>
+      <c r="O32" s="6" t="n"/>
+      <c r="P32" s="6" t="n"/>
+      <c r="Q32" s="6" t="n"/>
+      <c r="R32" s="6" t="n"/>
+      <c r="S32" s="6" t="n"/>
+      <c r="T32" s="6" t="n"/>
+      <c r="U32" s="6" t="n"/>
+      <c r="V32" s="6" t="n"/>
+      <c r="W32" s="6" t="n"/>
+      <c r="X32" s="6" t="n"/>
+      <c r="Y32" s="6" t="n"/>
+      <c r="Z32" s="6" t="n"/>
+      <c r="AA32" s="6" t="n"/>
+      <c r="AB32" s="6" t="n"/>
+      <c r="AC32" s="6" t="n"/>
+      <c r="AD32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
-      <c r="W33" s="2" t="n"/>
-      <c r="X33" s="2" t="n"/>
-      <c r="Y33" s="2" t="n"/>
-      <c r="Z33" s="2" t="n"/>
-      <c r="AA33" s="2" t="n"/>
-      <c r="AB33" s="2" t="n"/>
-      <c r="AC33" s="2" t="n"/>
-      <c r="AD33" s="2" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="6" t="n"/>
+      <c r="I33" s="6" t="n"/>
+      <c r="J33" s="6" t="n"/>
+      <c r="K33" s="6" t="n"/>
+      <c r="L33" s="6" t="n"/>
+      <c r="M33" s="6" t="n"/>
+      <c r="N33" s="6" t="n"/>
+      <c r="O33" s="6" t="n"/>
+      <c r="P33" s="6" t="n"/>
+      <c r="Q33" s="6" t="n"/>
+      <c r="R33" s="6" t="n"/>
+      <c r="S33" s="6" t="n"/>
+      <c r="T33" s="6" t="n"/>
+      <c r="U33" s="6" t="n"/>
+      <c r="V33" s="6" t="n"/>
+      <c r="W33" s="6" t="n"/>
+      <c r="X33" s="6" t="n"/>
+      <c r="Y33" s="6" t="n"/>
+      <c r="Z33" s="6" t="n"/>
+      <c r="AA33" s="6" t="n"/>
+      <c r="AB33" s="6" t="n"/>
+      <c r="AC33" s="6" t="n"/>
+      <c r="AD33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="n"/>
-      <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
-      <c r="W34" s="2" t="n"/>
-      <c r="X34" s="2" t="n"/>
-      <c r="Y34" s="2" t="n"/>
-      <c r="Z34" s="2" t="n"/>
-      <c r="AA34" s="2" t="n"/>
-      <c r="AB34" s="2" t="n"/>
-      <c r="AC34" s="2" t="n"/>
-      <c r="AD34" s="2" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="n"/>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="6" t="n"/>
+      <c r="I34" s="6" t="n"/>
+      <c r="J34" s="6" t="n"/>
+      <c r="K34" s="6" t="n"/>
+      <c r="L34" s="6" t="n"/>
+      <c r="M34" s="6" t="n"/>
+      <c r="N34" s="6" t="n"/>
+      <c r="O34" s="6" t="n"/>
+      <c r="P34" s="6" t="n"/>
+      <c r="Q34" s="6" t="n"/>
+      <c r="R34" s="6" t="n"/>
+      <c r="S34" s="6" t="n"/>
+      <c r="T34" s="6" t="n"/>
+      <c r="U34" s="6" t="n"/>
+      <c r="V34" s="6" t="n"/>
+      <c r="W34" s="6" t="n"/>
+      <c r="X34" s="6" t="n"/>
+      <c r="Y34" s="6" t="n"/>
+      <c r="Z34" s="6" t="n"/>
+      <c r="AA34" s="6" t="n"/>
+      <c r="AB34" s="6" t="n"/>
+      <c r="AC34" s="6" t="n"/>
+      <c r="AD34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="2" t="n"/>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="n"/>
-      <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
-      <c r="W35" s="2" t="n"/>
-      <c r="X35" s="2" t="n"/>
-      <c r="Y35" s="2" t="n"/>
-      <c r="Z35" s="2" t="n"/>
-      <c r="AA35" s="2" t="n"/>
-      <c r="AB35" s="2" t="n"/>
-      <c r="AC35" s="2" t="n"/>
-      <c r="AD35" s="2" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="6" t="n"/>
+      <c r="I35" s="6" t="n"/>
+      <c r="J35" s="6" t="n"/>
+      <c r="K35" s="6" t="n"/>
+      <c r="L35" s="6" t="n"/>
+      <c r="M35" s="6" t="n"/>
+      <c r="N35" s="6" t="n"/>
+      <c r="O35" s="6" t="n"/>
+      <c r="P35" s="6" t="n"/>
+      <c r="Q35" s="6" t="n"/>
+      <c r="R35" s="6" t="n"/>
+      <c r="S35" s="6" t="n"/>
+      <c r="T35" s="6" t="n"/>
+      <c r="U35" s="6" t="n"/>
+      <c r="V35" s="6" t="n"/>
+      <c r="W35" s="6" t="n"/>
+      <c r="X35" s="6" t="n"/>
+      <c r="Y35" s="6" t="n"/>
+      <c r="Z35" s="6" t="n"/>
+      <c r="AA35" s="6" t="n"/>
+      <c r="AB35" s="6" t="n"/>
+      <c r="AC35" s="6" t="n"/>
+      <c r="AD35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
-      <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
-      <c r="W36" s="2" t="n"/>
-      <c r="X36" s="2" t="n"/>
-      <c r="Y36" s="2" t="n"/>
-      <c r="Z36" s="2" t="n"/>
-      <c r="AA36" s="2" t="n"/>
-      <c r="AB36" s="2" t="n"/>
-      <c r="AC36" s="2" t="n"/>
-      <c r="AD36" s="2" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="H36" s="6" t="n"/>
+      <c r="I36" s="6" t="n"/>
+      <c r="J36" s="6" t="n"/>
+      <c r="K36" s="6" t="n"/>
+      <c r="L36" s="6" t="n"/>
+      <c r="M36" s="6" t="n"/>
+      <c r="N36" s="6" t="n"/>
+      <c r="O36" s="6" t="n"/>
+      <c r="P36" s="6" t="n"/>
+      <c r="Q36" s="6" t="n"/>
+      <c r="R36" s="6" t="n"/>
+      <c r="S36" s="6" t="n"/>
+      <c r="T36" s="6" t="n"/>
+      <c r="U36" s="6" t="n"/>
+      <c r="V36" s="6" t="n"/>
+      <c r="W36" s="6" t="n"/>
+      <c r="X36" s="6" t="n"/>
+      <c r="Y36" s="6" t="n"/>
+      <c r="Z36" s="6" t="n"/>
+      <c r="AA36" s="6" t="n"/>
+      <c r="AB36" s="6" t="n"/>
+      <c r="AC36" s="6" t="n"/>
+      <c r="AD36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="2" t="n"/>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
-      <c r="T37" s="2" t="n"/>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
-      <c r="W37" s="2" t="n"/>
-      <c r="X37" s="2" t="n"/>
-      <c r="Y37" s="2" t="n"/>
-      <c r="Z37" s="2" t="n"/>
-      <c r="AA37" s="2" t="n"/>
-      <c r="AB37" s="2" t="n"/>
-      <c r="AC37" s="2" t="n"/>
-      <c r="AD37" s="2" t="n"/>
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="E37" s="6" t="n"/>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="6" t="n"/>
+      <c r="I37" s="6" t="n"/>
+      <c r="J37" s="6" t="n"/>
+      <c r="K37" s="6" t="n"/>
+      <c r="L37" s="6" t="n"/>
+      <c r="M37" s="6" t="n"/>
+      <c r="N37" s="6" t="n"/>
+      <c r="O37" s="6" t="n"/>
+      <c r="P37" s="6" t="n"/>
+      <c r="Q37" s="6" t="n"/>
+      <c r="R37" s="6" t="n"/>
+      <c r="S37" s="6" t="n"/>
+      <c r="T37" s="6" t="n"/>
+      <c r="U37" s="6" t="n"/>
+      <c r="V37" s="6" t="n"/>
+      <c r="W37" s="6" t="n"/>
+      <c r="X37" s="6" t="n"/>
+      <c r="Y37" s="6" t="n"/>
+      <c r="Z37" s="6" t="n"/>
+      <c r="AA37" s="6" t="n"/>
+      <c r="AB37" s="6" t="n"/>
+      <c r="AC37" s="6" t="n"/>
+      <c r="AD37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
-      <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="n"/>
-      <c r="R38" s="2" t="n"/>
-      <c r="S38" s="2" t="n"/>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="n"/>
-      <c r="W38" s="2" t="n"/>
-      <c r="X38" s="2" t="n"/>
-      <c r="Y38" s="2" t="n"/>
-      <c r="Z38" s="2" t="n"/>
-      <c r="AA38" s="2" t="n"/>
-      <c r="AB38" s="2" t="n"/>
-      <c r="AC38" s="2" t="n"/>
-      <c r="AD38" s="2" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="6" t="n"/>
+      <c r="I38" s="6" t="n"/>
+      <c r="J38" s="6" t="n"/>
+      <c r="K38" s="6" t="n"/>
+      <c r="L38" s="6" t="n"/>
+      <c r="M38" s="6" t="n"/>
+      <c r="N38" s="6" t="n"/>
+      <c r="O38" s="6" t="n"/>
+      <c r="P38" s="6" t="n"/>
+      <c r="Q38" s="6" t="n"/>
+      <c r="R38" s="6" t="n"/>
+      <c r="S38" s="6" t="n"/>
+      <c r="T38" s="6" t="n"/>
+      <c r="U38" s="6" t="n"/>
+      <c r="V38" s="6" t="n"/>
+      <c r="W38" s="6" t="n"/>
+      <c r="X38" s="6" t="n"/>
+      <c r="Y38" s="6" t="n"/>
+      <c r="Z38" s="6" t="n"/>
+      <c r="AA38" s="6" t="n"/>
+      <c r="AB38" s="6" t="n"/>
+      <c r="AC38" s="6" t="n"/>
+      <c r="AD38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
-      <c r="T39" s="2" t="n"/>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
-      <c r="W39" s="2" t="n"/>
-      <c r="X39" s="2" t="n"/>
-      <c r="Y39" s="2" t="n"/>
-      <c r="Z39" s="2" t="n"/>
-      <c r="AA39" s="2" t="n"/>
-      <c r="AB39" s="2" t="n"/>
-      <c r="AC39" s="2" t="n"/>
-      <c r="AD39" s="2" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="6" t="n"/>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="6" t="n"/>
+      <c r="I39" s="6" t="n"/>
+      <c r="J39" s="6" t="n"/>
+      <c r="K39" s="6" t="n"/>
+      <c r="L39" s="6" t="n"/>
+      <c r="M39" s="6" t="n"/>
+      <c r="N39" s="6" t="n"/>
+      <c r="O39" s="6" t="n"/>
+      <c r="P39" s="6" t="n"/>
+      <c r="Q39" s="6" t="n"/>
+      <c r="R39" s="6" t="n"/>
+      <c r="S39" s="6" t="n"/>
+      <c r="T39" s="6" t="n"/>
+      <c r="U39" s="6" t="n"/>
+      <c r="V39" s="6" t="n"/>
+      <c r="W39" s="6" t="n"/>
+      <c r="X39" s="6" t="n"/>
+      <c r="Y39" s="6" t="n"/>
+      <c r="Z39" s="6" t="n"/>
+      <c r="AA39" s="6" t="n"/>
+      <c r="AB39" s="6" t="n"/>
+      <c r="AC39" s="6" t="n"/>
+      <c r="AD39" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3316,990 +3720,1965 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="23" t="inlineStr">
         <is>
           <t>Category1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>Category2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="23" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="23" t="inlineStr">
         <is>
           <t>CAD$</t>
         </is>
       </c>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+      <c r="O1" s="6" t="n"/>
+      <c r="P1" s="6" t="n"/>
+      <c r="Q1" s="6" t="n"/>
+      <c r="R1" s="6" t="n"/>
+      <c r="S1" s="6" t="n"/>
+      <c r="T1" s="6" t="n"/>
+      <c r="U1" s="6" t="n"/>
+      <c r="V1" s="6" t="n"/>
+      <c r="W1" s="6" t="n"/>
+      <c r="X1" s="6" t="n"/>
+      <c r="Y1" s="6" t="n"/>
+      <c r="Z1" s="6" t="n"/>
+      <c r="AA1" s="6" t="n"/>
+      <c r="AB1" s="6" t="n"/>
+      <c r="AC1" s="6" t="n"/>
+      <c r="AD1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>PAYROLL</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="6" t="n">
         <v>7000</v>
       </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="6" t="n"/>
+      <c r="X2" s="6" t="n"/>
+      <c r="Y2" s="6" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="6" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Clothes</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>WINNERS</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="6" t="n"/>
+      <c r="U3" s="6" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="6" t="n"/>
+      <c r="X3" s="6" t="n"/>
+      <c r="Y3" s="6" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="6" t="n"/>
+      <c r="AC3" s="6" t="n"/>
+      <c r="AD3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Hair</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>FIFTH</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="6" t="n"/>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="6" t="n"/>
+      <c r="U4" s="6" t="n"/>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="6" t="n"/>
+      <c r="X4" s="6" t="n"/>
+      <c r="Y4" s="6" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="6" t="n"/>
+      <c r="AB4" s="6" t="n"/>
+      <c r="AC4" s="6" t="n"/>
+      <c r="AD4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Gym</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>ALTITUDE</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="6" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="6" t="n"/>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="T5" s="6" t="n"/>
+      <c r="U5" s="6" t="n"/>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="6" t="n"/>
+      <c r="X5" s="6" t="n"/>
+      <c r="Y5" s="6" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="6" t="n"/>
+      <c r="AB5" s="6" t="n"/>
+      <c r="AC5" s="6" t="n"/>
+      <c r="AD5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>PersonalCare</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>JEAN</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="6" t="n">
         <v>-300</v>
       </c>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="6" t="n"/>
+      <c r="X6" s="6" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
+      <c r="AB6" s="6" t="n"/>
+      <c r="AC6" s="6" t="n"/>
+      <c r="AD6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>Cinema</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>CINEPLEX</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="6" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="6" t="n"/>
+      <c r="O7" s="6" t="n"/>
+      <c r="P7" s="6" t="n"/>
+      <c r="Q7" s="6" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="6" t="n"/>
+      <c r="X7" s="6" t="n"/>
+      <c r="Y7" s="6" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="6" t="n"/>
+      <c r="AC7" s="6" t="n"/>
+      <c r="AD7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>STEAM</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="6" t="n">
         <v>-400</v>
       </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="6" t="n"/>
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="6" t="n"/>
+      <c r="Q8" s="6" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="6" t="n"/>
+      <c r="X8" s="6" t="n"/>
+      <c r="Y8" s="6" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="6" t="n"/>
+      <c r="AC8" s="6" t="n"/>
+      <c r="AD8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Banking</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>MONTHLY</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="6" t="n"/>
+      <c r="M9" s="6" t="n"/>
+      <c r="N9" s="6" t="n"/>
+      <c r="O9" s="6" t="n"/>
+      <c r="P9" s="6" t="n"/>
+      <c r="Q9" s="6" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="T9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="6" t="n"/>
+      <c r="X9" s="6" t="n"/>
+      <c r="Y9" s="6" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="6" t="n"/>
+      <c r="AC9" s="6" t="n"/>
+      <c r="AD9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Banking</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>Investing</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="6" t="n">
         <v>-900</v>
       </c>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n"/>
+      <c r="M10" s="6" t="n"/>
+      <c r="N10" s="6" t="n"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="6" t="n"/>
+      <c r="Q10" s="6" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="T10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="6" t="n"/>
+      <c r="X10" s="6" t="n"/>
+      <c r="Y10" s="6" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
+      <c r="AB10" s="6" t="n"/>
+      <c r="AC10" s="6" t="n"/>
+      <c r="AD10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>Coffee</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>STARBUCKS</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="6" t="n"/>
+      <c r="M11" s="6" t="n"/>
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="6" t="n"/>
+      <c r="P11" s="6" t="n"/>
+      <c r="Q11" s="6" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="6" t="n"/>
+      <c r="T11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="6" t="n"/>
+      <c r="X11" s="6" t="n"/>
+      <c r="Y11" s="6" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
+      <c r="AB11" s="6" t="n"/>
+      <c r="AC11" s="6" t="n"/>
+      <c r="AD11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>Netflix</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>APPLE.COM/BILL</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="6" t="n"/>
+      <c r="L12" s="6" t="n"/>
+      <c r="M12" s="6" t="n"/>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="P12" s="6" t="n"/>
+      <c r="Q12" s="6" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="6" t="n"/>
+      <c r="T12" s="6" t="n"/>
+      <c r="U12" s="6" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="6" t="n"/>
+      <c r="X12" s="6" t="n"/>
+      <c r="Y12" s="6" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
+      <c r="AB12" s="6" t="n"/>
+      <c r="AC12" s="6" t="n"/>
+      <c r="AD12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>Groceries</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>PROVIGO</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="6" t="n">
         <v>-400</v>
       </c>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="6" t="n"/>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
+      <c r="P13" s="6" t="n"/>
+      <c r="Q13" s="6" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="6" t="n"/>
+      <c r="T13" s="6" t="n"/>
+      <c r="U13" s="6" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="6" t="n"/>
+      <c r="X13" s="6" t="n"/>
+      <c r="Y13" s="6" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="6" t="n"/>
+      <c r="AB13" s="6" t="n"/>
+      <c r="AC13" s="6" t="n"/>
+      <c r="AD13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>Take-out</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>DOMINO'S</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="6" t="n"/>
+      <c r="K14" s="6" t="n"/>
+      <c r="L14" s="6" t="n"/>
+      <c r="M14" s="6" t="n"/>
+      <c r="N14" s="6" t="n"/>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="6" t="n"/>
+      <c r="Q14" s="6" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="6" t="n"/>
+      <c r="T14" s="6" t="n"/>
+      <c r="U14" s="6" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="6" t="n"/>
+      <c r="X14" s="6" t="n"/>
+      <c r="Y14" s="6" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="6" t="n"/>
+      <c r="AB14" s="6" t="n"/>
+      <c r="AC14" s="6" t="n"/>
+      <c r="AD14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>Housing</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>INSURANCE</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="6" t="n"/>
+      <c r="J15" s="6" t="n"/>
+      <c r="K15" s="6" t="n"/>
+      <c r="L15" s="6" t="n"/>
+      <c r="M15" s="6" t="n"/>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="6" t="n"/>
+      <c r="P15" s="6" t="n"/>
+      <c r="Q15" s="6" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="6" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="6" t="n"/>
+      <c r="X15" s="6" t="n"/>
+      <c r="Y15" s="6" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="6" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="6" t="n">
         <v>-400</v>
       </c>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="6" t="n"/>
+      <c r="J16" s="6" t="n"/>
+      <c r="K16" s="6" t="n"/>
+      <c r="L16" s="6" t="n"/>
+      <c r="M16" s="6" t="n"/>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="6" t="n"/>
+      <c r="P16" s="6" t="n"/>
+      <c r="Q16" s="6" t="n"/>
+      <c r="R16" s="6" t="n"/>
+      <c r="S16" s="6" t="n"/>
+      <c r="T16" s="6" t="n"/>
+      <c r="U16" s="6" t="n"/>
+      <c r="V16" s="6" t="n"/>
+      <c r="W16" s="6" t="n"/>
+      <c r="X16" s="6" t="n"/>
+      <c r="Y16" s="6" t="n"/>
+      <c r="Z16" s="6" t="n"/>
+      <c r="AA16" s="6" t="n"/>
+      <c r="AB16" s="6" t="n"/>
+      <c r="AC16" s="6" t="n"/>
+      <c r="AD16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>AutoInsurance</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="6" t="n">
         <v>-150</v>
       </c>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="6" t="n"/>
+      <c r="K17" s="6" t="n"/>
+      <c r="L17" s="6" t="n"/>
+      <c r="M17" s="6" t="n"/>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="6" t="n"/>
+      <c r="P17" s="6" t="n"/>
+      <c r="Q17" s="6" t="n"/>
+      <c r="R17" s="6" t="n"/>
+      <c r="S17" s="6" t="n"/>
+      <c r="T17" s="6" t="n"/>
+      <c r="U17" s="6" t="n"/>
+      <c r="V17" s="6" t="n"/>
+      <c r="W17" s="6" t="n"/>
+      <c r="X17" s="6" t="n"/>
+      <c r="Y17" s="6" t="n"/>
+      <c r="Z17" s="6" t="n"/>
+      <c r="AA17" s="6" t="n"/>
+      <c r="AB17" s="6" t="n"/>
+      <c r="AC17" s="6" t="n"/>
+      <c r="AD17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>Housing</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>Rent</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>CHEQUE</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="6" t="n">
         <v>-500</v>
       </c>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="6" t="n"/>
+      <c r="J18" s="6" t="n"/>
+      <c r="K18" s="6" t="n"/>
+      <c r="L18" s="6" t="n"/>
+      <c r="M18" s="6" t="n"/>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="6" t="n"/>
+      <c r="P18" s="6" t="n"/>
+      <c r="Q18" s="6" t="n"/>
+      <c r="R18" s="6" t="n"/>
+      <c r="S18" s="6" t="n"/>
+      <c r="T18" s="6" t="n"/>
+      <c r="U18" s="6" t="n"/>
+      <c r="V18" s="6" t="n"/>
+      <c r="W18" s="6" t="n"/>
+      <c r="X18" s="6" t="n"/>
+      <c r="Y18" s="6" t="n"/>
+      <c r="Z18" s="6" t="n"/>
+      <c r="AA18" s="6" t="n"/>
+      <c r="AB18" s="6" t="n"/>
+      <c r="AC18" s="6" t="n"/>
+      <c r="AD18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>HYDRO</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="6" t="n">
         <v>-250</v>
       </c>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="6" t="n"/>
+      <c r="I19" s="6" t="n"/>
+      <c r="J19" s="6" t="n"/>
+      <c r="K19" s="6" t="n"/>
+      <c r="L19" s="6" t="n"/>
+      <c r="M19" s="6" t="n"/>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="6" t="n"/>
+      <c r="P19" s="6" t="n"/>
+      <c r="Q19" s="6" t="n"/>
+      <c r="R19" s="6" t="n"/>
+      <c r="S19" s="6" t="n"/>
+      <c r="T19" s="6" t="n"/>
+      <c r="U19" s="6" t="n"/>
+      <c r="V19" s="6" t="n"/>
+      <c r="W19" s="6" t="n"/>
+      <c r="X19" s="6" t="n"/>
+      <c r="Y19" s="6" t="n"/>
+      <c r="Z19" s="6" t="n"/>
+      <c r="AA19" s="6" t="n"/>
+      <c r="AB19" s="6" t="n"/>
+      <c r="AC19" s="6" t="n"/>
+      <c r="AD19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>Internet</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>VIDEOTRON</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="6" t="n">
         <v>-250</v>
       </c>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="6" t="n"/>
+      <c r="I20" s="6" t="n"/>
+      <c r="J20" s="6" t="n"/>
+      <c r="K20" s="6" t="n"/>
+      <c r="L20" s="6" t="n"/>
+      <c r="M20" s="6" t="n"/>
+      <c r="N20" s="6" t="n"/>
+      <c r="O20" s="6" t="n"/>
+      <c r="P20" s="6" t="n"/>
+      <c r="Q20" s="6" t="n"/>
+      <c r="R20" s="6" t="n"/>
+      <c r="S20" s="6" t="n"/>
+      <c r="T20" s="6" t="n"/>
+      <c r="U20" s="6" t="n"/>
+      <c r="V20" s="6" t="n"/>
+      <c r="W20" s="6" t="n"/>
+      <c r="X20" s="6" t="n"/>
+      <c r="Y20" s="6" t="n"/>
+      <c r="Z20" s="6" t="n"/>
+      <c r="AA20" s="6" t="n"/>
+      <c r="AB20" s="6" t="n"/>
+      <c r="AC20" s="6" t="n"/>
+      <c r="AD20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>KOODO</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="6" t="n">
         <v>-250</v>
       </c>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="H21" s="6" t="n"/>
+      <c r="I21" s="6" t="n"/>
+      <c r="J21" s="6" t="n"/>
+      <c r="K21" s="6" t="n"/>
+      <c r="L21" s="6" t="n"/>
+      <c r="M21" s="6" t="n"/>
+      <c r="N21" s="6" t="n"/>
+      <c r="O21" s="6" t="n"/>
+      <c r="P21" s="6" t="n"/>
+      <c r="Q21" s="6" t="n"/>
+      <c r="R21" s="6" t="n"/>
+      <c r="S21" s="6" t="n"/>
+      <c r="T21" s="6" t="n"/>
+      <c r="U21" s="6" t="n"/>
+      <c r="V21" s="6" t="n"/>
+      <c r="W21" s="6" t="n"/>
+      <c r="X21" s="6" t="n"/>
+      <c r="Y21" s="6" t="n"/>
+      <c r="Z21" s="6" t="n"/>
+      <c r="AA21" s="6" t="n"/>
+      <c r="AB21" s="6" t="n"/>
+      <c r="AC21" s="6" t="n"/>
+      <c r="AD21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>Fuel</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>SHELL</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="6" t="n">
         <v>-150</v>
       </c>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="6" t="n"/>
+      <c r="I22" s="6" t="n"/>
+      <c r="J22" s="6" t="n"/>
+      <c r="K22" s="6" t="n"/>
+      <c r="L22" s="6" t="n"/>
+      <c r="M22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
+      <c r="O22" s="6" t="n"/>
+      <c r="P22" s="6" t="n"/>
+      <c r="Q22" s="6" t="n"/>
+      <c r="R22" s="6" t="n"/>
+      <c r="S22" s="6" t="n"/>
+      <c r="T22" s="6" t="n"/>
+      <c r="U22" s="6" t="n"/>
+      <c r="V22" s="6" t="n"/>
+      <c r="W22" s="6" t="n"/>
+      <c r="X22" s="6" t="n"/>
+      <c r="Y22" s="6" t="n"/>
+      <c r="Z22" s="6" t="n"/>
+      <c r="AA22" s="6" t="n"/>
+      <c r="AB22" s="6" t="n"/>
+      <c r="AC22" s="6" t="n"/>
+      <c r="AD22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>Banking</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>Investing</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="6" t="n">
         <v>-900</v>
       </c>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="6" t="n"/>
+      <c r="I23" s="6" t="n"/>
+      <c r="J23" s="6" t="n"/>
+      <c r="K23" s="6" t="n"/>
+      <c r="L23" s="6" t="n"/>
+      <c r="M23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
+      <c r="O23" s="6" t="n"/>
+      <c r="P23" s="6" t="n"/>
+      <c r="Q23" s="6" t="n"/>
+      <c r="R23" s="6" t="n"/>
+      <c r="S23" s="6" t="n"/>
+      <c r="T23" s="6" t="n"/>
+      <c r="U23" s="6" t="n"/>
+      <c r="V23" s="6" t="n"/>
+      <c r="W23" s="6" t="n"/>
+      <c r="X23" s="6" t="n"/>
+      <c r="Y23" s="6" t="n"/>
+      <c r="Z23" s="6" t="n"/>
+      <c r="AA23" s="6" t="n"/>
+      <c r="AB23" s="6" t="n"/>
+      <c r="AC23" s="6" t="n"/>
+      <c r="AD23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>Clothes</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>WINNERS</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="6" t="n"/>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="6" t="n"/>
+      <c r="K24" s="6" t="n"/>
+      <c r="L24" s="6" t="n"/>
+      <c r="M24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
+      <c r="O24" s="6" t="n"/>
+      <c r="P24" s="6" t="n"/>
+      <c r="Q24" s="6" t="n"/>
+      <c r="R24" s="6" t="n"/>
+      <c r="S24" s="6" t="n"/>
+      <c r="T24" s="6" t="n"/>
+      <c r="U24" s="6" t="n"/>
+      <c r="V24" s="6" t="n"/>
+      <c r="W24" s="6" t="n"/>
+      <c r="X24" s="6" t="n"/>
+      <c r="Y24" s="6" t="n"/>
+      <c r="Z24" s="6" t="n"/>
+      <c r="AA24" s="6" t="n"/>
+      <c r="AB24" s="6" t="n"/>
+      <c r="AC24" s="6" t="n"/>
+      <c r="AD24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>Hair</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>FIFTH</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
+      <c r="I25" s="6" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="6" t="n"/>
+      <c r="Q25" s="6" t="n"/>
+      <c r="R25" s="6" t="n"/>
+      <c r="S25" s="6" t="n"/>
+      <c r="T25" s="6" t="n"/>
+      <c r="U25" s="6" t="n"/>
+      <c r="V25" s="6" t="n"/>
+      <c r="W25" s="6" t="n"/>
+      <c r="X25" s="6" t="n"/>
+      <c r="Y25" s="6" t="n"/>
+      <c r="Z25" s="6" t="n"/>
+      <c r="AA25" s="6" t="n"/>
+      <c r="AB25" s="6" t="n"/>
+      <c r="AC25" s="6" t="n"/>
+      <c r="AD25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>Gym</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>ALTITUDE</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="n"/>
+      <c r="I26" s="6" t="n"/>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="6" t="n"/>
+      <c r="Q26" s="6" t="n"/>
+      <c r="R26" s="6" t="n"/>
+      <c r="S26" s="6" t="n"/>
+      <c r="T26" s="6" t="n"/>
+      <c r="U26" s="6" t="n"/>
+      <c r="V26" s="6" t="n"/>
+      <c r="W26" s="6" t="n"/>
+      <c r="X26" s="6" t="n"/>
+      <c r="Y26" s="6" t="n"/>
+      <c r="Z26" s="6" t="n"/>
+      <c r="AA26" s="6" t="n"/>
+      <c r="AB26" s="6" t="n"/>
+      <c r="AC26" s="6" t="n"/>
+      <c r="AD26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>PersonalCare</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>JEAN</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="6" t="n">
         <v>-300</v>
       </c>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
+      <c r="I27" s="6" t="n"/>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="6" t="n"/>
+      <c r="Q27" s="6" t="n"/>
+      <c r="R27" s="6" t="n"/>
+      <c r="S27" s="6" t="n"/>
+      <c r="T27" s="6" t="n"/>
+      <c r="U27" s="6" t="n"/>
+      <c r="V27" s="6" t="n"/>
+      <c r="W27" s="6" t="n"/>
+      <c r="X27" s="6" t="n"/>
+      <c r="Y27" s="6" t="n"/>
+      <c r="Z27" s="6" t="n"/>
+      <c r="AA27" s="6" t="n"/>
+      <c r="AB27" s="6" t="n"/>
+      <c r="AC27" s="6" t="n"/>
+      <c r="AD27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>Cinema</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>CINEPLEX</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
+      <c r="I28" s="6" t="n"/>
+      <c r="J28" s="6" t="n"/>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="6" t="n"/>
+      <c r="M28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
+      <c r="O28" s="6" t="n"/>
+      <c r="P28" s="6" t="n"/>
+      <c r="Q28" s="6" t="n"/>
+      <c r="R28" s="6" t="n"/>
+      <c r="S28" s="6" t="n"/>
+      <c r="T28" s="6" t="n"/>
+      <c r="U28" s="6" t="n"/>
+      <c r="V28" s="6" t="n"/>
+      <c r="W28" s="6" t="n"/>
+      <c r="X28" s="6" t="n"/>
+      <c r="Y28" s="6" t="n"/>
+      <c r="Z28" s="6" t="n"/>
+      <c r="AA28" s="6" t="n"/>
+      <c r="AB28" s="6" t="n"/>
+      <c r="AC28" s="6" t="n"/>
+      <c r="AD28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>Netflix</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>APPLE.COM/BILL</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="6" t="n"/>
+      <c r="Q29" s="6" t="n"/>
+      <c r="R29" s="6" t="n"/>
+      <c r="S29" s="6" t="n"/>
+      <c r="T29" s="6" t="n"/>
+      <c r="U29" s="6" t="n"/>
+      <c r="V29" s="6" t="n"/>
+      <c r="W29" s="6" t="n"/>
+      <c r="X29" s="6" t="n"/>
+      <c r="Y29" s="6" t="n"/>
+      <c r="Z29" s="6" t="n"/>
+      <c r="AA29" s="6" t="n"/>
+      <c r="AB29" s="6" t="n"/>
+      <c r="AC29" s="6" t="n"/>
+      <c r="AD29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>STEAM</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="6" t="n">
         <v>-400</v>
       </c>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="n"/>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="n"/>
+      <c r="M30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="6" t="n"/>
+      <c r="P30" s="6" t="n"/>
+      <c r="Q30" s="6" t="n"/>
+      <c r="R30" s="6" t="n"/>
+      <c r="S30" s="6" t="n"/>
+      <c r="T30" s="6" t="n"/>
+      <c r="U30" s="6" t="n"/>
+      <c r="V30" s="6" t="n"/>
+      <c r="W30" s="6" t="n"/>
+      <c r="X30" s="6" t="n"/>
+      <c r="Y30" s="6" t="n"/>
+      <c r="Z30" s="6" t="n"/>
+      <c r="AA30" s="6" t="n"/>
+      <c r="AB30" s="6" t="n"/>
+      <c r="AC30" s="6" t="n"/>
+      <c r="AD30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>Banking</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>MONTHLY</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="H31" s="6" t="n"/>
+      <c r="I31" s="6" t="n"/>
+      <c r="J31" s="6" t="n"/>
+      <c r="K31" s="6" t="n"/>
+      <c r="L31" s="6" t="n"/>
+      <c r="M31" s="6" t="n"/>
+      <c r="N31" s="6" t="n"/>
+      <c r="O31" s="6" t="n"/>
+      <c r="P31" s="6" t="n"/>
+      <c r="Q31" s="6" t="n"/>
+      <c r="R31" s="6" t="n"/>
+      <c r="S31" s="6" t="n"/>
+      <c r="T31" s="6" t="n"/>
+      <c r="U31" s="6" t="n"/>
+      <c r="V31" s="6" t="n"/>
+      <c r="W31" s="6" t="n"/>
+      <c r="X31" s="6" t="n"/>
+      <c r="Y31" s="6" t="n"/>
+      <c r="Z31" s="6" t="n"/>
+      <c r="AA31" s="6" t="n"/>
+      <c r="AB31" s="6" t="n"/>
+      <c r="AC31" s="6" t="n"/>
+      <c r="AD31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>Coffee</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>STARBUCKS</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="6" t="n">
         <v>-100</v>
       </c>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="H32" s="6" t="n"/>
+      <c r="I32" s="6" t="n"/>
+      <c r="J32" s="6" t="n"/>
+      <c r="K32" s="6" t="n"/>
+      <c r="L32" s="6" t="n"/>
+      <c r="M32" s="6" t="n"/>
+      <c r="N32" s="6" t="n"/>
+      <c r="O32" s="6" t="n"/>
+      <c r="P32" s="6" t="n"/>
+      <c r="Q32" s="6" t="n"/>
+      <c r="R32" s="6" t="n"/>
+      <c r="S32" s="6" t="n"/>
+      <c r="T32" s="6" t="n"/>
+      <c r="U32" s="6" t="n"/>
+      <c r="V32" s="6" t="n"/>
+      <c r="W32" s="6" t="n"/>
+      <c r="X32" s="6" t="n"/>
+      <c r="Y32" s="6" t="n"/>
+      <c r="Z32" s="6" t="n"/>
+      <c r="AA32" s="6" t="n"/>
+      <c r="AB32" s="6" t="n"/>
+      <c r="AC32" s="6" t="n"/>
+      <c r="AD32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>AutoInsurance</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>AUTO</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="6" t="n">
         <v>-150</v>
       </c>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="H33" s="6" t="n"/>
+      <c r="I33" s="6" t="n"/>
+      <c r="J33" s="6" t="n"/>
+      <c r="K33" s="6" t="n"/>
+      <c r="L33" s="6" t="n"/>
+      <c r="M33" s="6" t="n"/>
+      <c r="N33" s="6" t="n"/>
+      <c r="O33" s="6" t="n"/>
+      <c r="P33" s="6" t="n"/>
+      <c r="Q33" s="6" t="n"/>
+      <c r="R33" s="6" t="n"/>
+      <c r="S33" s="6" t="n"/>
+      <c r="T33" s="6" t="n"/>
+      <c r="U33" s="6" t="n"/>
+      <c r="V33" s="6" t="n"/>
+      <c r="W33" s="6" t="n"/>
+      <c r="X33" s="6" t="n"/>
+      <c r="Y33" s="6" t="n"/>
+      <c r="Z33" s="6" t="n"/>
+      <c r="AA33" s="6" t="n"/>
+      <c r="AB33" s="6" t="n"/>
+      <c r="AC33" s="6" t="n"/>
+      <c r="AD33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>Groceries</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>PROVIGO</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="6" t="n">
         <v>-400</v>
       </c>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="H34" s="6" t="n"/>
+      <c r="I34" s="6" t="n"/>
+      <c r="J34" s="6" t="n"/>
+      <c r="K34" s="6" t="n"/>
+      <c r="L34" s="6" t="n"/>
+      <c r="M34" s="6" t="n"/>
+      <c r="N34" s="6" t="n"/>
+      <c r="O34" s="6" t="n"/>
+      <c r="P34" s="6" t="n"/>
+      <c r="Q34" s="6" t="n"/>
+      <c r="R34" s="6" t="n"/>
+      <c r="S34" s="6" t="n"/>
+      <c r="T34" s="6" t="n"/>
+      <c r="U34" s="6" t="n"/>
+      <c r="V34" s="6" t="n"/>
+      <c r="W34" s="6" t="n"/>
+      <c r="X34" s="6" t="n"/>
+      <c r="Y34" s="6" t="n"/>
+      <c r="Z34" s="6" t="n"/>
+      <c r="AA34" s="6" t="n"/>
+      <c r="AB34" s="6" t="n"/>
+      <c r="AC34" s="6" t="n"/>
+      <c r="AD34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>Take-out</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>DOMINO'S</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="H35" s="6" t="n"/>
+      <c r="I35" s="6" t="n"/>
+      <c r="J35" s="6" t="n"/>
+      <c r="K35" s="6" t="n"/>
+      <c r="L35" s="6" t="n"/>
+      <c r="M35" s="6" t="n"/>
+      <c r="N35" s="6" t="n"/>
+      <c r="O35" s="6" t="n"/>
+      <c r="P35" s="6" t="n"/>
+      <c r="Q35" s="6" t="n"/>
+      <c r="R35" s="6" t="n"/>
+      <c r="S35" s="6" t="n"/>
+      <c r="T35" s="6" t="n"/>
+      <c r="U35" s="6" t="n"/>
+      <c r="V35" s="6" t="n"/>
+      <c r="W35" s="6" t="n"/>
+      <c r="X35" s="6" t="n"/>
+      <c r="Y35" s="6" t="n"/>
+      <c r="Z35" s="6" t="n"/>
+      <c r="AA35" s="6" t="n"/>
+      <c r="AB35" s="6" t="n"/>
+      <c r="AC35" s="6" t="n"/>
+      <c r="AD35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>Housing</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>Rent</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>CHEQUE</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="6" t="n">
         <v>-500</v>
       </c>
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="H36" s="6" t="n"/>
+      <c r="I36" s="6" t="n"/>
+      <c r="J36" s="6" t="n"/>
+      <c r="K36" s="6" t="n"/>
+      <c r="L36" s="6" t="n"/>
+      <c r="M36" s="6" t="n"/>
+      <c r="N36" s="6" t="n"/>
+      <c r="O36" s="6" t="n"/>
+      <c r="P36" s="6" t="n"/>
+      <c r="Q36" s="6" t="n"/>
+      <c r="R36" s="6" t="n"/>
+      <c r="S36" s="6" t="n"/>
+      <c r="T36" s="6" t="n"/>
+      <c r="U36" s="6" t="n"/>
+      <c r="V36" s="6" t="n"/>
+      <c r="W36" s="6" t="n"/>
+      <c r="X36" s="6" t="n"/>
+      <c r="Y36" s="6" t="n"/>
+      <c r="Z36" s="6" t="n"/>
+      <c r="AA36" s="6" t="n"/>
+      <c r="AB36" s="6" t="n"/>
+      <c r="AC36" s="6" t="n"/>
+      <c r="AD36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="6" t="inlineStr">
         <is>
           <t>Housing</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>INSURANCE</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="6" t="n">
         <v>-200</v>
       </c>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="H37" s="6" t="n"/>
+      <c r="I37" s="6" t="n"/>
+      <c r="J37" s="6" t="n"/>
+      <c r="K37" s="6" t="n"/>
+      <c r="L37" s="6" t="n"/>
+      <c r="M37" s="6" t="n"/>
+      <c r="N37" s="6" t="n"/>
+      <c r="O37" s="6" t="n"/>
+      <c r="P37" s="6" t="n"/>
+      <c r="Q37" s="6" t="n"/>
+      <c r="R37" s="6" t="n"/>
+      <c r="S37" s="6" t="n"/>
+      <c r="T37" s="6" t="n"/>
+      <c r="U37" s="6" t="n"/>
+      <c r="V37" s="6" t="n"/>
+      <c r="W37" s="6" t="n"/>
+      <c r="X37" s="6" t="n"/>
+      <c r="Y37" s="6" t="n"/>
+      <c r="Z37" s="6" t="n"/>
+      <c r="AA37" s="6" t="n"/>
+      <c r="AB37" s="6" t="n"/>
+      <c r="AC37" s="6" t="n"/>
+      <c r="AD37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="6" t="n">
         <v>-400</v>
       </c>
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="H38" s="6" t="n"/>
+      <c r="I38" s="6" t="n"/>
+      <c r="J38" s="6" t="n"/>
+      <c r="K38" s="6" t="n"/>
+      <c r="L38" s="6" t="n"/>
+      <c r="M38" s="6" t="n"/>
+      <c r="N38" s="6" t="n"/>
+      <c r="O38" s="6" t="n"/>
+      <c r="P38" s="6" t="n"/>
+      <c r="Q38" s="6" t="n"/>
+      <c r="R38" s="6" t="n"/>
+      <c r="S38" s="6" t="n"/>
+      <c r="T38" s="6" t="n"/>
+      <c r="U38" s="6" t="n"/>
+      <c r="V38" s="6" t="n"/>
+      <c r="W38" s="6" t="n"/>
+      <c r="X38" s="6" t="n"/>
+      <c r="Y38" s="6" t="n"/>
+      <c r="Z38" s="6" t="n"/>
+      <c r="AA38" s="6" t="n"/>
+      <c r="AB38" s="6" t="n"/>
+      <c r="AC38" s="6" t="n"/>
+      <c r="AD38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>PAYROLL</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="6" t="n">
         <v>5000</v>
       </c>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="H39" s="6" t="n"/>
+      <c r="I39" s="6" t="n"/>
+      <c r="J39" s="6" t="n"/>
+      <c r="K39" s="6" t="n"/>
+      <c r="L39" s="6" t="n"/>
+      <c r="M39" s="6" t="n"/>
+      <c r="N39" s="6" t="n"/>
+      <c r="O39" s="6" t="n"/>
+      <c r="P39" s="6" t="n"/>
+      <c r="Q39" s="6" t="n"/>
+      <c r="R39" s="6" t="n"/>
+      <c r="S39" s="6" t="n"/>
+      <c r="T39" s="6" t="n"/>
+      <c r="U39" s="6" t="n"/>
+      <c r="V39" s="6" t="n"/>
+      <c r="W39" s="6" t="n"/>
+      <c r="X39" s="6" t="n"/>
+      <c r="Y39" s="6" t="n"/>
+      <c r="Z39" s="6" t="n"/>
+      <c r="AA39" s="6" t="n"/>
+      <c r="AB39" s="6" t="n"/>
+      <c r="AC39" s="6" t="n"/>
+      <c r="AD39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9652,6 +11031,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>